--- a/TKO.xlsx
+++ b/TKO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FEECD4-DAF5-4A6E-BFEE-1F9AD190F5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D07512-38B2-47B9-A1A6-7019BFEF1DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{F8F957D8-2909-488E-83E0-2A638F3F5333}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <author>Oscar Settje</author>
   </authors>
   <commentList>
-    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{A25A221D-2E9C-4588-BC0A-E91B7BE29EB2}">
+    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{A25A221D-2E9C-4588-BC0A-E91B7BE29EB2}">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>TKO Group</t>
   </si>
@@ -201,6 +201,30 @@
   <si>
     <t>WWE</t>
   </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Deal with Paramount for broadcasting rights</t>
+  </si>
+  <si>
+    <t>IMG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquistion of IMG from Endeavor Group 28.02.2025 </t>
+  </si>
 </sst>
 </file>
 
@@ -208,10 +232,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0;\(#,##0.0\)"/>
-    <numFmt numFmtId="166" formatCode="#,##0;\(#,##0\)"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00;\(#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +272,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -270,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -279,12 +312,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -620,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2459A3-97BA-4999-A32D-7ECEB2EFDB07}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>145.72</v>
+        <v>184.82</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -652,11 +686,10 @@
         <v>3</v>
       </c>
       <c r="J3" s="2">
-        <f>81.553818</f>
-        <v>81.553818000000007</v>
+        <v>82.136886000000004</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -668,7 +701,7 @@
       </c>
       <c r="J4" s="2">
         <f>+J2*J3</f>
-        <v>11884.022358960001</v>
+        <v>15180.539270520001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -679,10 +712,10 @@
         <v>5</v>
       </c>
       <c r="J5" s="2">
-        <v>525.55600000000004</v>
+        <v>535.06100000000004</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -690,11 +723,11 @@
         <v>6</v>
       </c>
       <c r="J6" s="2">
-        <f>26.513+2732.761</f>
-        <v>2759.2739999999999</v>
+        <f>27.014+2722.3</f>
+        <v>2749.3140000000003</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -706,7 +739,7 @@
       </c>
       <c r="J7" s="2">
         <f>+J4-J5+J6</f>
-        <v>14117.74035896</v>
+        <v>17394.792270520004</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -717,6 +750,26 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -726,13 +779,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD143A9D-E042-4EFD-A629-460B0E36C05E}">
-  <dimension ref="A1:BE445"/>
+  <dimension ref="A1:BI447"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,12 +794,12 @@
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
@@ -759,37 +812,53 @@
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6">
+        <v>11</v>
+      </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6">
+      <c r="H3" s="6">
+        <v>11</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6">
         <v>43</v>
       </c>
-      <c r="J3" s="6">
+      <c r="N3" s="6">
         <v>42</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -833,27 +902,35 @@
       <c r="BC3" s="2"/>
       <c r="BD3" s="2"/>
       <c r="BE3" s="2"/>
-    </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BH3" s="2"/>
+      <c r="BI3" s="2"/>
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6">
+        <v>74</v>
+      </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6">
+      <c r="H4" s="6">
+        <v>60</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6">
         <v>76</v>
       </c>
-      <c r="J4" s="6">
+      <c r="N4" s="6">
         <v>176</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -897,44 +974,37 @@
       <c r="BC4" s="2"/>
       <c r="BD4" s="2"/>
       <c r="BE4" s="2"/>
-    </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>21</v>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
+    </row>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>49</v>
       </c>
-      <c r="C5" s="7">
-        <f>+C3+C4</f>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6">
+        <v>198</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6">
+        <v>186</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6">
         <v>0</v>
       </c>
-      <c r="D5" s="7">
-        <f t="shared" ref="D5:F5" si="0">+D3+D4</f>
+      <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="E5" s="7">
-        <f t="shared" si="0"/>
+      <c r="N5" s="6">
         <v>0</v>
       </c>
-      <c r="F5" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7">
-        <f t="shared" ref="H5" si="1">+H3+H4</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <f t="shared" ref="I5" si="2">+I3+I4</f>
-        <v>119</v>
-      </c>
-      <c r="J5" s="7">
-        <f t="shared" ref="J5" si="3">+J3+J4</f>
-        <v>218</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -978,20 +1048,60 @@
       <c r="BC5" s="2"/>
       <c r="BD5" s="2"/>
       <c r="BE5" s="2"/>
-    </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+    </row>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" ref="C6:G6" si="0">+SUM(C3:C5)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>283</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <f>+SUM(H3:H5)</f>
+        <v>257</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6:J6" si="1">+SUM(I3:I5)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="7">
+        <f t="shared" ref="L6" si="2">+SUM(L3:L5)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" ref="M6" si="3">+SUM(M3:M5)</f>
+        <v>119</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" ref="N6" si="4">+SUM(N3:N5)</f>
+        <v>218</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1035,23 +1145,20 @@
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
       <c r="BE6" s="2"/>
-    </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
+      <c r="BF6" s="2"/>
+      <c r="BG6" s="2"/>
+      <c r="BH6" s="2"/>
+      <c r="BI6" s="2"/>
+    </row>
+    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2">
-        <v>1292.2</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1406.2</v>
-      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1099,27 +1206,35 @@
       <c r="BC7" s="2"/>
       <c r="BD7" s="2"/>
       <c r="BE7" s="2"/>
-    </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="2"/>
+      <c r="BH7" s="2"/>
+      <c r="BI7" s="2"/>
+    </row>
+    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>394.358</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2">
-        <v>382.8</v>
+      <c r="H8" s="2">
+        <v>415.83499999999998</v>
       </c>
-      <c r="J8" s="2">
-        <v>1398.1</v>
-      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="M8" s="2">
+        <v>1292.2</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1406.2</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1163,29 +1278,35 @@
       <c r="BC8" s="2"/>
       <c r="BD8" s="2"/>
       <c r="BE8" s="2"/>
-    </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>18</v>
+      <c r="BF8" s="2"/>
+      <c r="BG8" s="2"/>
+      <c r="BH8" s="2"/>
+      <c r="BI8" s="2"/>
+    </row>
+    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>17</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>456.803</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="5">
-        <v>1140.1469999999999</v>
+      <c r="H9" s="2">
+        <v>556.14200000000005</v>
       </c>
-      <c r="I9" s="5">
-        <v>1674.9680000000001</v>
-      </c>
-      <c r="J9" s="5">
-        <v>2804.3409999999999</v>
-      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="M9" s="2">
+        <v>382.8</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1398.1</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1229,29 +1350,37 @@
       <c r="BC9" s="2"/>
       <c r="BD9" s="2"/>
       <c r="BE9" s="2"/>
-    </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
+      <c r="BH9" s="2"/>
+      <c r="BI9" s="2"/>
+    </row>
+    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>319.596</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2">
-        <v>325.58600000000001</v>
+        <v>306.58999999999997</v>
       </c>
-      <c r="I10" s="2">
-        <v>514.59799999999996</v>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2">
+        <v>0</v>
       </c>
-      <c r="J10" s="2">
-        <v>899.875</v>
+      <c r="M10" s="2">
+        <v>0</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -1295,32 +1424,37 @@
       <c r="BC10" s="2"/>
       <c r="BD10" s="2"/>
       <c r="BE10" s="2"/>
-    </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>23</v>
+      <c r="BF10" s="2"/>
+      <c r="BG10" s="2"/>
+      <c r="BH10" s="2"/>
+      <c r="BI10" s="2"/>
+    </row>
+    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="5">
+        <v>1193.191</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2">
-        <f t="shared" ref="H11:I11" si="4">+H9-H10</f>
-        <v>814.56099999999992</v>
+      <c r="H11" s="5">
+        <v>1308.442</v>
       </c>
-      <c r="I11" s="2">
-        <f t="shared" si="4"/>
-        <v>1160.3700000000001</v>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="5">
+        <v>1140.1469999999999</v>
       </c>
-      <c r="J11" s="2">
-        <f>+J9-J10</f>
-        <v>1904.4659999999999</v>
+      <c r="M11" s="5">
+        <v>1674.9680000000001</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="N11" s="5">
+        <v>2804.3409999999999</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -1364,29 +1498,37 @@
       <c r="BC11" s="2"/>
       <c r="BD11" s="2"/>
       <c r="BE11" s="2"/>
-    </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF11" s="2"/>
+      <c r="BG11" s="2"/>
+      <c r="BH11" s="2"/>
+      <c r="BI11" s="2"/>
+    </row>
+    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>591.23800000000006</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2">
-        <v>210.142</v>
+        <v>476.38299999999998</v>
       </c>
-      <c r="I12" s="2">
-        <v>549.09100000000001</v>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2">
+        <v>325.58600000000001</v>
       </c>
-      <c r="J12" s="2">
-        <v>1228.722</v>
+      <c r="M12" s="2">
+        <v>514.59799999999996</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="N12" s="2">
+        <v>899.875</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -1430,29 +1572,60 @@
       <c r="BC12" s="2"/>
       <c r="BD12" s="2"/>
       <c r="BE12" s="2"/>
-    </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="2"/>
+      <c r="BH12" s="2"/>
+      <c r="BI12" s="2"/>
+    </row>
+    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="C13" s="2">
+        <f t="shared" ref="C13:J13" si="5">+C11-C12</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="5"/>
+        <v>601.95299999999997</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="H13" s="2">
-        <v>60.031999999999996</v>
+        <f t="shared" si="5"/>
+        <v>832.05899999999997</v>
       </c>
       <c r="I13" s="2">
-        <v>164.61600000000001</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="J13" s="2">
-        <v>392.84199999999998</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="L13" s="2">
+        <f t="shared" ref="L13:M13" si="6">+L11-L12</f>
+        <v>814.56099999999992</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="6"/>
+        <v>1160.3700000000001</v>
+      </c>
+      <c r="N13" s="2">
+        <f>+N11-N12</f>
+        <v>1904.4659999999999</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1496,32 +1669,37 @@
       <c r="BC13" s="2"/>
       <c r="BD13" s="2"/>
       <c r="BE13" s="2"/>
-    </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF13" s="2"/>
+      <c r="BG13" s="2"/>
+      <c r="BH13" s="2"/>
+      <c r="BI13" s="2"/>
+    </row>
+    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>368.185</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2">
-        <f t="shared" ref="H14:I14" si="5">+H11-SUM(H12:H13)</f>
-        <v>544.38699999999994</v>
+        <v>364.35700000000003</v>
       </c>
-      <c r="I14" s="2">
-        <f t="shared" si="5"/>
-        <v>446.66300000000012</v>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2">
+        <v>210.142</v>
       </c>
-      <c r="J14" s="2">
-        <f>+J11-SUM(J12:J13)</f>
-        <v>282.90200000000004</v>
+      <c r="M14" s="2">
+        <v>549.09100000000001</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="N14" s="2">
+        <v>1228.722</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1565,29 +1743,37 @@
       <c r="BC14" s="2"/>
       <c r="BD14" s="2"/>
       <c r="BE14" s="2"/>
-    </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF14" s="2"/>
+      <c r="BG14" s="2"/>
+      <c r="BH14" s="2"/>
+      <c r="BI14" s="2"/>
+    </row>
+    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>118.91200000000001</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2">
-        <v>-139.56700000000001</v>
+        <v>99.397000000000006</v>
       </c>
-      <c r="I15" s="2">
-        <v>-239.042</v>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2">
+        <v>60.031999999999996</v>
       </c>
-      <c r="J15" s="2">
-        <v>-249.11500000000001</v>
+      <c r="M15" s="2">
+        <v>164.61600000000001</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="N15" s="2">
+        <v>392.84199999999998</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1631,29 +1817,60 @@
       <c r="BC15" s="2"/>
       <c r="BD15" s="2"/>
       <c r="BE15" s="2"/>
-    </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF15" s="2"/>
+      <c r="BG15" s="2"/>
+      <c r="BH15" s="2"/>
+      <c r="BI15" s="2"/>
+    </row>
+    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="C16" s="2">
+        <f t="shared" ref="C16:J16" si="7">+C13-SUM(C14:C15)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="7"/>
+        <v>114.85599999999999</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="H16" s="2">
-        <v>-1.2709999999999999</v>
+        <f t="shared" si="7"/>
+        <v>368.30499999999995</v>
       </c>
       <c r="I16" s="2">
-        <v>-0.186</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="J16" s="2">
-        <v>0.56299999999999994</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="L16" s="2">
+        <f t="shared" ref="L16:M16" si="8">+L13-SUM(L14:L15)</f>
+        <v>544.38699999999994</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="8"/>
+        <v>446.66300000000012</v>
+      </c>
+      <c r="N16" s="2">
+        <f>+N13-SUM(N14:N15)</f>
+        <v>282.90200000000004</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -1697,32 +1914,37 @@
       <c r="BC16" s="2"/>
       <c r="BD16" s="2"/>
       <c r="BE16" s="2"/>
-    </row>
-    <row r="17" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF16" s="2"/>
+      <c r="BG16" s="2"/>
+      <c r="BH16" s="2"/>
+      <c r="BI16" s="2"/>
+    </row>
+    <row r="17" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2">
+        <v>-62.978999999999999</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2">
-        <f t="shared" ref="H17:I17" si="6">+H14+H15+H16</f>
-        <v>403.54899999999992</v>
+        <v>-48.207000000000001</v>
       </c>
-      <c r="I17" s="2">
-        <f t="shared" si="6"/>
-        <v>207.43500000000012</v>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2">
+        <v>-139.56700000000001</v>
       </c>
-      <c r="J17" s="2">
-        <f>+J14+J15+J16</f>
-        <v>34.350000000000037</v>
+      <c r="M17" s="2">
+        <v>-239.042</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="N17" s="2">
+        <v>-249.11500000000001</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -1766,29 +1988,37 @@
       <c r="BC17" s="2"/>
       <c r="BD17" s="2"/>
       <c r="BE17" s="2"/>
-    </row>
-    <row r="18" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF17" s="2"/>
+      <c r="BG17" s="2"/>
+      <c r="BH17" s="2"/>
+      <c r="BI17" s="2"/>
+    </row>
+    <row r="18" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>-0.20300000000000001</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2">
-        <v>14.318</v>
+        <v>-7.8390000000000004</v>
       </c>
-      <c r="I18" s="2">
-        <v>31.446000000000002</v>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2">
+        <v>-1.2709999999999999</v>
       </c>
-      <c r="J18" s="2">
-        <v>25.706</v>
+      <c r="M18" s="2">
+        <v>-0.186</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="N18" s="2">
+        <v>0.56299999999999994</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -1832,29 +2062,60 @@
       <c r="BC18" s="2"/>
       <c r="BD18" s="2"/>
       <c r="BE18" s="2"/>
-    </row>
-    <row r="19" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF18" s="2"/>
+      <c r="BG18" s="2"/>
+      <c r="BH18" s="2"/>
+      <c r="BI18" s="2"/>
+    </row>
+    <row r="19" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="C19" s="2">
+        <f t="shared" ref="C19:J19" si="9">+C16+C17+C18</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="9"/>
+        <v>51.673999999999992</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="H19" s="2">
-        <v>0.20899999999999999</v>
+        <f t="shared" si="9"/>
+        <v>312.25899999999996</v>
       </c>
       <c r="I19" s="2">
-        <v>0.26600000000000001</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="J19" s="2">
-        <v>2.2669999999999999</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="L19" s="2">
+        <f t="shared" ref="L19:M19" si="10">+L16+L17+L18</f>
+        <v>403.54899999999992</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="10"/>
+        <v>207.43500000000012</v>
+      </c>
+      <c r="N19" s="2">
+        <f>+N16+N17+N18</f>
+        <v>34.350000000000037</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -1898,32 +2159,37 @@
       <c r="BC19" s="2"/>
       <c r="BD19" s="2"/>
       <c r="BE19" s="2"/>
-    </row>
-    <row r="20" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF19" s="2"/>
+      <c r="BG19" s="2"/>
+      <c r="BH19" s="2"/>
+      <c r="BI19" s="2"/>
+    </row>
+    <row r="20" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>6.609</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2">
-        <f t="shared" ref="H20" si="7">+H17-H18-H19</f>
-        <v>389.02199999999993</v>
+        <v>46.472000000000001</v>
       </c>
-      <c r="I20" s="2">
-        <f>+I17-I18-I19</f>
-        <v>175.72300000000013</v>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2">
+        <v>14.318</v>
       </c>
-      <c r="J20" s="2">
-        <f>+J17-J18-J19</f>
-        <v>6.377000000000038</v>
+      <c r="M20" s="2">
+        <v>31.446000000000002</v>
       </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="N20" s="2">
+        <v>25.706</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -1967,29 +2233,37 @@
       <c r="BC20" s="2"/>
       <c r="BD20" s="2"/>
       <c r="BE20" s="2"/>
-    </row>
-    <row r="21" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF20" s="2"/>
+      <c r="BG20" s="2"/>
+      <c r="BH20" s="2"/>
+      <c r="BI20" s="2"/>
+    </row>
+    <row r="21" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>-1.1180000000000001</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2">
-        <v>1.7470000000000001</v>
+        <v>-7.31</v>
       </c>
-      <c r="I21" s="2">
-        <v>-32.453000000000003</v>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2">
+        <v>0.20899999999999999</v>
       </c>
-      <c r="J21" s="2">
-        <v>-3.0310000000000001</v>
+      <c r="M21" s="2">
+        <v>0.26600000000000001</v>
       </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="N21" s="2">
+        <v>2.2669999999999999</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -2033,29 +2307,60 @@
       <c r="BC21" s="2"/>
       <c r="BD21" s="2"/>
       <c r="BE21" s="2"/>
-    </row>
-    <row r="22" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF21" s="2"/>
+      <c r="BG21" s="2"/>
+      <c r="BH21" s="2"/>
+      <c r="BI21" s="2"/>
+    </row>
+    <row r="22" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="C22" s="2">
+        <f t="shared" ref="C22:J22" si="11">+C19-C20-C21</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="11"/>
+        <v>46.182999999999993</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="H22" s="2">
-        <v>387.27499999999998</v>
+        <f t="shared" si="11"/>
+        <v>273.09699999999998</v>
       </c>
       <c r="I22" s="2">
-        <v>243.40299999999999</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="J22" s="2">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="L22" s="2">
+        <f t="shared" ref="L22" si="12">+L19-L20-L21</f>
+        <v>389.02199999999993</v>
+      </c>
+      <c r="M22" s="2">
+        <f>+M19-M20-M21</f>
+        <v>175.72300000000013</v>
+      </c>
+      <c r="N22" s="2">
+        <f>+N19-N20-N21</f>
+        <v>6.377000000000038</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -2099,32 +2404,37 @@
       <c r="BC22" s="2"/>
       <c r="BD22" s="2"/>
       <c r="BE22" s="2"/>
-    </row>
-    <row r="23" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF22" s="2"/>
+      <c r="BG22" s="2"/>
+      <c r="BH22" s="2"/>
+      <c r="BI22" s="2"/>
+    </row>
+    <row r="23" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>-12.923999999999999</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2">
-        <f t="shared" ref="H23:I23" si="8">+H20-H21-H22</f>
-        <v>0</v>
+        <v>174.732</v>
       </c>
-      <c r="I23" s="2">
-        <f t="shared" si="8"/>
-        <v>-35.226999999999862</v>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2">
+        <v>1.7470000000000001</v>
       </c>
-      <c r="J23" s="2">
-        <f>+J20-J21-J22</f>
-        <v>9.4080000000000386</v>
+      <c r="M23" s="2">
+        <v>-32.453000000000003</v>
       </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="N23" s="2">
+        <v>-3.0310000000000001</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -2168,20 +2478,37 @@
       <c r="BC23" s="2"/>
       <c r="BD23" s="2"/>
       <c r="BE23" s="2"/>
-    </row>
-    <row r="24" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF23" s="2"/>
+      <c r="BG23" s="2"/>
+      <c r="BH23" s="2"/>
+      <c r="BI23" s="2"/>
+    </row>
+    <row r="24" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="L24" s="2">
+        <v>387.27499999999998</v>
+      </c>
+      <c r="M24" s="2">
+        <v>243.40299999999999</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -2225,31 +2552,60 @@
       <c r="BC24" s="2"/>
       <c r="BD24" s="2"/>
       <c r="BE24" s="2"/>
-    </row>
-    <row r="25" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF24" s="2"/>
+      <c r="BG24" s="2"/>
+      <c r="BH24" s="2"/>
+      <c r="BI24" s="2"/>
+    </row>
+    <row r="25" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="9" t="s">
-        <v>27</v>
+      <c r="C25" s="2">
+        <f t="shared" ref="C25:J25" si="13">+C22-C23-C24</f>
+        <v>0</v>
       </c>
-      <c r="I25" s="8">
-        <f t="shared" ref="H25:I25" si="9">+I23/I26</f>
-        <v>-0.42540566028997578</v>
+      <c r="D25" s="2">
+        <f t="shared" si="13"/>
+        <v>59.106999999999992</v>
       </c>
-      <c r="J25" s="8">
-        <f>+J23/J26</f>
-        <v>0.11566197943872317</v>
+      <c r="E25" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="13"/>
+        <v>98.364999999999981</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="L25" s="2">
+        <f t="shared" ref="L25:M25" si="14">+L22-L23-L24</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="14"/>
+        <v>-35.226999999999862</v>
+      </c>
+      <c r="N25" s="2">
+        <f>+N22-N23-N24</f>
+        <v>9.4080000000000386</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -2293,25 +2649,20 @@
       <c r="BC25" s="2"/>
       <c r="BD25" s="2"/>
       <c r="BE25" s="2"/>
-    </row>
-    <row r="26" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
+      <c r="BF25" s="2"/>
+      <c r="BG25" s="2"/>
+      <c r="BH25" s="2"/>
+      <c r="BI25" s="2"/>
+    </row>
+    <row r="26" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="2">
-        <v>82.808019000000002</v>
-      </c>
-      <c r="J26" s="2">
-        <v>81.340472000000005</v>
-      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -2359,20 +2710,59 @@
       <c r="BC26" s="2"/>
       <c r="BD26" s="2"/>
       <c r="BE26" s="2"/>
-    </row>
-    <row r="27" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="BF26" s="2"/>
+      <c r="BG26" s="2"/>
+      <c r="BH26" s="2"/>
+      <c r="BI26" s="2"/>
+    </row>
+    <row r="27" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="8" t="e">
+        <f t="shared" ref="C27:G27" si="15">+C25/C28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" si="15"/>
+        <v>0.73075793879107598</v>
+      </c>
+      <c r="E27" s="8" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="8" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="8" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" s="8">
+        <f>+H25/H28</f>
+        <v>1.2031286359354028</v>
+      </c>
+      <c r="I27" s="8" t="e">
+        <f t="shared" ref="I27:J27" si="16">+I25/I28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" s="8" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="L27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="8">
+        <f t="shared" ref="M27" si="17">+M25/M28</f>
+        <v>-0.42540566028997578</v>
+      </c>
+      <c r="N27" s="8">
+        <f>+N25/N28</f>
+        <v>0.11566197943872317</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -2416,20 +2806,37 @@
       <c r="BC27" s="2"/>
       <c r="BD27" s="2"/>
       <c r="BE27" s="2"/>
-    </row>
-    <row r="28" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF27" s="2"/>
+      <c r="BG27" s="2"/>
+      <c r="BH27" s="2"/>
+      <c r="BI27" s="2"/>
+    </row>
+    <row r="28" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2">
+        <v>80.884512999999998</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2">
+        <v>81.757675000000006</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="L28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="2">
+        <v>82.808019000000002</v>
+      </c>
+      <c r="N28" s="2">
+        <v>81.340472000000005</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -2473,8 +2880,12 @@
       <c r="BC28" s="2"/>
       <c r="BD28" s="2"/>
       <c r="BE28" s="2"/>
-    </row>
-    <row r="29" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF28" s="2"/>
+      <c r="BG28" s="2"/>
+      <c r="BH28" s="2"/>
+      <c r="BI28" s="2"/>
+    </row>
+    <row r="29" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -2530,8 +2941,12 @@
       <c r="BC29" s="2"/>
       <c r="BD29" s="2"/>
       <c r="BE29" s="2"/>
-    </row>
-    <row r="30" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF29" s="2"/>
+      <c r="BG29" s="2"/>
+      <c r="BH29" s="2"/>
+      <c r="BI29" s="2"/>
+    </row>
+    <row r="30" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -2587,8 +3002,12 @@
       <c r="BC30" s="2"/>
       <c r="BD30" s="2"/>
       <c r="BE30" s="2"/>
-    </row>
-    <row r="31" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF30" s="2"/>
+      <c r="BG30" s="2"/>
+      <c r="BH30" s="2"/>
+      <c r="BI30" s="2"/>
+    </row>
+    <row r="31" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -2644,8 +3063,12 @@
       <c r="BC31" s="2"/>
       <c r="BD31" s="2"/>
       <c r="BE31" s="2"/>
-    </row>
-    <row r="32" spans="2:57" x14ac:dyDescent="0.25">
+      <c r="BF31" s="2"/>
+      <c r="BG31" s="2"/>
+      <c r="BH31" s="2"/>
+      <c r="BI31" s="2"/>
+    </row>
+    <row r="32" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -2701,8 +3124,12 @@
       <c r="BC32" s="2"/>
       <c r="BD32" s="2"/>
       <c r="BE32" s="2"/>
-    </row>
-    <row r="33" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF32" s="2"/>
+      <c r="BG32" s="2"/>
+      <c r="BH32" s="2"/>
+      <c r="BI32" s="2"/>
+    </row>
+    <row r="33" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -2758,8 +3185,12 @@
       <c r="BC33" s="2"/>
       <c r="BD33" s="2"/>
       <c r="BE33" s="2"/>
-    </row>
-    <row r="34" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF33" s="2"/>
+      <c r="BG33" s="2"/>
+      <c r="BH33" s="2"/>
+      <c r="BI33" s="2"/>
+    </row>
+    <row r="34" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -2815,8 +3246,12 @@
       <c r="BC34" s="2"/>
       <c r="BD34" s="2"/>
       <c r="BE34" s="2"/>
-    </row>
-    <row r="35" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF34" s="2"/>
+      <c r="BG34" s="2"/>
+      <c r="BH34" s="2"/>
+      <c r="BI34" s="2"/>
+    </row>
+    <row r="35" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -2872,8 +3307,12 @@
       <c r="BC35" s="2"/>
       <c r="BD35" s="2"/>
       <c r="BE35" s="2"/>
-    </row>
-    <row r="36" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF35" s="2"/>
+      <c r="BG35" s="2"/>
+      <c r="BH35" s="2"/>
+      <c r="BI35" s="2"/>
+    </row>
+    <row r="36" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -2929,8 +3368,12 @@
       <c r="BC36" s="2"/>
       <c r="BD36" s="2"/>
       <c r="BE36" s="2"/>
-    </row>
-    <row r="37" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF36" s="2"/>
+      <c r="BG36" s="2"/>
+      <c r="BH36" s="2"/>
+      <c r="BI36" s="2"/>
+    </row>
+    <row r="37" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -2986,8 +3429,12 @@
       <c r="BC37" s="2"/>
       <c r="BD37" s="2"/>
       <c r="BE37" s="2"/>
-    </row>
-    <row r="38" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF37" s="2"/>
+      <c r="BG37" s="2"/>
+      <c r="BH37" s="2"/>
+      <c r="BI37" s="2"/>
+    </row>
+    <row r="38" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -3043,8 +3490,12 @@
       <c r="BC38" s="2"/>
       <c r="BD38" s="2"/>
       <c r="BE38" s="2"/>
-    </row>
-    <row r="39" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF38" s="2"/>
+      <c r="BG38" s="2"/>
+      <c r="BH38" s="2"/>
+      <c r="BI38" s="2"/>
+    </row>
+    <row r="39" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -3100,8 +3551,12 @@
       <c r="BC39" s="2"/>
       <c r="BD39" s="2"/>
       <c r="BE39" s="2"/>
-    </row>
-    <row r="40" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF39" s="2"/>
+      <c r="BG39" s="2"/>
+      <c r="BH39" s="2"/>
+      <c r="BI39" s="2"/>
+    </row>
+    <row r="40" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -3157,8 +3612,12 @@
       <c r="BC40" s="2"/>
       <c r="BD40" s="2"/>
       <c r="BE40" s="2"/>
-    </row>
-    <row r="41" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF40" s="2"/>
+      <c r="BG40" s="2"/>
+      <c r="BH40" s="2"/>
+      <c r="BI40" s="2"/>
+    </row>
+    <row r="41" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -3214,8 +3673,12 @@
       <c r="BC41" s="2"/>
       <c r="BD41" s="2"/>
       <c r="BE41" s="2"/>
-    </row>
-    <row r="42" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF41" s="2"/>
+      <c r="BG41" s="2"/>
+      <c r="BH41" s="2"/>
+      <c r="BI41" s="2"/>
+    </row>
+    <row r="42" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -3271,8 +3734,12 @@
       <c r="BC42" s="2"/>
       <c r="BD42" s="2"/>
       <c r="BE42" s="2"/>
-    </row>
-    <row r="43" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF42" s="2"/>
+      <c r="BG42" s="2"/>
+      <c r="BH42" s="2"/>
+      <c r="BI42" s="2"/>
+    </row>
+    <row r="43" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -3328,8 +3795,12 @@
       <c r="BC43" s="2"/>
       <c r="BD43" s="2"/>
       <c r="BE43" s="2"/>
-    </row>
-    <row r="44" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF43" s="2"/>
+      <c r="BG43" s="2"/>
+      <c r="BH43" s="2"/>
+      <c r="BI43" s="2"/>
+    </row>
+    <row r="44" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -3385,8 +3856,12 @@
       <c r="BC44" s="2"/>
       <c r="BD44" s="2"/>
       <c r="BE44" s="2"/>
-    </row>
-    <row r="45" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF44" s="2"/>
+      <c r="BG44" s="2"/>
+      <c r="BH44" s="2"/>
+      <c r="BI44" s="2"/>
+    </row>
+    <row r="45" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -3442,8 +3917,12 @@
       <c r="BC45" s="2"/>
       <c r="BD45" s="2"/>
       <c r="BE45" s="2"/>
-    </row>
-    <row r="46" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF45" s="2"/>
+      <c r="BG45" s="2"/>
+      <c r="BH45" s="2"/>
+      <c r="BI45" s="2"/>
+    </row>
+    <row r="46" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -3499,8 +3978,12 @@
       <c r="BC46" s="2"/>
       <c r="BD46" s="2"/>
       <c r="BE46" s="2"/>
-    </row>
-    <row r="47" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF46" s="2"/>
+      <c r="BG46" s="2"/>
+      <c r="BH46" s="2"/>
+      <c r="BI46" s="2"/>
+    </row>
+    <row r="47" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -3556,8 +4039,12 @@
       <c r="BC47" s="2"/>
       <c r="BD47" s="2"/>
       <c r="BE47" s="2"/>
-    </row>
-    <row r="48" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF47" s="2"/>
+      <c r="BG47" s="2"/>
+      <c r="BH47" s="2"/>
+      <c r="BI47" s="2"/>
+    </row>
+    <row r="48" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -3613,8 +4100,12 @@
       <c r="BC48" s="2"/>
       <c r="BD48" s="2"/>
       <c r="BE48" s="2"/>
-    </row>
-    <row r="49" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF48" s="2"/>
+      <c r="BG48" s="2"/>
+      <c r="BH48" s="2"/>
+      <c r="BI48" s="2"/>
+    </row>
+    <row r="49" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -3670,8 +4161,12 @@
       <c r="BC49" s="2"/>
       <c r="BD49" s="2"/>
       <c r="BE49" s="2"/>
-    </row>
-    <row r="50" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF49" s="2"/>
+      <c r="BG49" s="2"/>
+      <c r="BH49" s="2"/>
+      <c r="BI49" s="2"/>
+    </row>
+    <row r="50" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -3727,8 +4222,12 @@
       <c r="BC50" s="2"/>
       <c r="BD50" s="2"/>
       <c r="BE50" s="2"/>
-    </row>
-    <row r="51" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF50" s="2"/>
+      <c r="BG50" s="2"/>
+      <c r="BH50" s="2"/>
+      <c r="BI50" s="2"/>
+    </row>
+    <row r="51" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -3784,8 +4283,12 @@
       <c r="BC51" s="2"/>
       <c r="BD51" s="2"/>
       <c r="BE51" s="2"/>
-    </row>
-    <row r="52" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF51" s="2"/>
+      <c r="BG51" s="2"/>
+      <c r="BH51" s="2"/>
+      <c r="BI51" s="2"/>
+    </row>
+    <row r="52" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -3841,8 +4344,12 @@
       <c r="BC52" s="2"/>
       <c r="BD52" s="2"/>
       <c r="BE52" s="2"/>
-    </row>
-    <row r="53" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF52" s="2"/>
+      <c r="BG52" s="2"/>
+      <c r="BH52" s="2"/>
+      <c r="BI52" s="2"/>
+    </row>
+    <row r="53" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -3898,8 +4405,12 @@
       <c r="BC53" s="2"/>
       <c r="BD53" s="2"/>
       <c r="BE53" s="2"/>
-    </row>
-    <row r="54" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF53" s="2"/>
+      <c r="BG53" s="2"/>
+      <c r="BH53" s="2"/>
+      <c r="BI53" s="2"/>
+    </row>
+    <row r="54" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -3955,8 +4466,12 @@
       <c r="BC54" s="2"/>
       <c r="BD54" s="2"/>
       <c r="BE54" s="2"/>
-    </row>
-    <row r="55" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF54" s="2"/>
+      <c r="BG54" s="2"/>
+      <c r="BH54" s="2"/>
+      <c r="BI54" s="2"/>
+    </row>
+    <row r="55" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -4012,8 +4527,12 @@
       <c r="BC55" s="2"/>
       <c r="BD55" s="2"/>
       <c r="BE55" s="2"/>
-    </row>
-    <row r="56" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF55" s="2"/>
+      <c r="BG55" s="2"/>
+      <c r="BH55" s="2"/>
+      <c r="BI55" s="2"/>
+    </row>
+    <row r="56" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -4069,8 +4588,12 @@
       <c r="BC56" s="2"/>
       <c r="BD56" s="2"/>
       <c r="BE56" s="2"/>
-    </row>
-    <row r="57" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF56" s="2"/>
+      <c r="BG56" s="2"/>
+      <c r="BH56" s="2"/>
+      <c r="BI56" s="2"/>
+    </row>
+    <row r="57" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -4126,8 +4649,12 @@
       <c r="BC57" s="2"/>
       <c r="BD57" s="2"/>
       <c r="BE57" s="2"/>
-    </row>
-    <row r="58" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF57" s="2"/>
+      <c r="BG57" s="2"/>
+      <c r="BH57" s="2"/>
+      <c r="BI57" s="2"/>
+    </row>
+    <row r="58" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -4183,8 +4710,12 @@
       <c r="BC58" s="2"/>
       <c r="BD58" s="2"/>
       <c r="BE58" s="2"/>
-    </row>
-    <row r="59" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF58" s="2"/>
+      <c r="BG58" s="2"/>
+      <c r="BH58" s="2"/>
+      <c r="BI58" s="2"/>
+    </row>
+    <row r="59" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -4240,8 +4771,12 @@
       <c r="BC59" s="2"/>
       <c r="BD59" s="2"/>
       <c r="BE59" s="2"/>
-    </row>
-    <row r="60" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF59" s="2"/>
+      <c r="BG59" s="2"/>
+      <c r="BH59" s="2"/>
+      <c r="BI59" s="2"/>
+    </row>
+    <row r="60" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -4297,8 +4832,12 @@
       <c r="BC60" s="2"/>
       <c r="BD60" s="2"/>
       <c r="BE60" s="2"/>
-    </row>
-    <row r="61" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF60" s="2"/>
+      <c r="BG60" s="2"/>
+      <c r="BH60" s="2"/>
+      <c r="BI60" s="2"/>
+    </row>
+    <row r="61" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -4354,8 +4893,12 @@
       <c r="BC61" s="2"/>
       <c r="BD61" s="2"/>
       <c r="BE61" s="2"/>
-    </row>
-    <row r="62" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF61" s="2"/>
+      <c r="BG61" s="2"/>
+      <c r="BH61" s="2"/>
+      <c r="BI61" s="2"/>
+    </row>
+    <row r="62" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -4411,8 +4954,12 @@
       <c r="BC62" s="2"/>
       <c r="BD62" s="2"/>
       <c r="BE62" s="2"/>
-    </row>
-    <row r="63" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF62" s="2"/>
+      <c r="BG62" s="2"/>
+      <c r="BH62" s="2"/>
+      <c r="BI62" s="2"/>
+    </row>
+    <row r="63" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -4468,8 +5015,12 @@
       <c r="BC63" s="2"/>
       <c r="BD63" s="2"/>
       <c r="BE63" s="2"/>
-    </row>
-    <row r="64" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF63" s="2"/>
+      <c r="BG63" s="2"/>
+      <c r="BH63" s="2"/>
+      <c r="BI63" s="2"/>
+    </row>
+    <row r="64" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -4525,8 +5076,12 @@
       <c r="BC64" s="2"/>
       <c r="BD64" s="2"/>
       <c r="BE64" s="2"/>
-    </row>
-    <row r="65" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF64" s="2"/>
+      <c r="BG64" s="2"/>
+      <c r="BH64" s="2"/>
+      <c r="BI64" s="2"/>
+    </row>
+    <row r="65" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -4582,8 +5137,12 @@
       <c r="BC65" s="2"/>
       <c r="BD65" s="2"/>
       <c r="BE65" s="2"/>
-    </row>
-    <row r="66" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF65" s="2"/>
+      <c r="BG65" s="2"/>
+      <c r="BH65" s="2"/>
+      <c r="BI65" s="2"/>
+    </row>
+    <row r="66" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -4639,8 +5198,12 @@
       <c r="BC66" s="2"/>
       <c r="BD66" s="2"/>
       <c r="BE66" s="2"/>
-    </row>
-    <row r="67" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF66" s="2"/>
+      <c r="BG66" s="2"/>
+      <c r="BH66" s="2"/>
+      <c r="BI66" s="2"/>
+    </row>
+    <row r="67" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -4696,8 +5259,12 @@
       <c r="BC67" s="2"/>
       <c r="BD67" s="2"/>
       <c r="BE67" s="2"/>
-    </row>
-    <row r="68" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF67" s="2"/>
+      <c r="BG67" s="2"/>
+      <c r="BH67" s="2"/>
+      <c r="BI67" s="2"/>
+    </row>
+    <row r="68" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -4753,8 +5320,12 @@
       <c r="BC68" s="2"/>
       <c r="BD68" s="2"/>
       <c r="BE68" s="2"/>
-    </row>
-    <row r="69" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF68" s="2"/>
+      <c r="BG68" s="2"/>
+      <c r="BH68" s="2"/>
+      <c r="BI68" s="2"/>
+    </row>
+    <row r="69" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -4810,8 +5381,12 @@
       <c r="BC69" s="2"/>
       <c r="BD69" s="2"/>
       <c r="BE69" s="2"/>
-    </row>
-    <row r="70" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF69" s="2"/>
+      <c r="BG69" s="2"/>
+      <c r="BH69" s="2"/>
+      <c r="BI69" s="2"/>
+    </row>
+    <row r="70" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -4867,8 +5442,12 @@
       <c r="BC70" s="2"/>
       <c r="BD70" s="2"/>
       <c r="BE70" s="2"/>
-    </row>
-    <row r="71" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF70" s="2"/>
+      <c r="BG70" s="2"/>
+      <c r="BH70" s="2"/>
+      <c r="BI70" s="2"/>
+    </row>
+    <row r="71" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -4924,8 +5503,12 @@
       <c r="BC71" s="2"/>
       <c r="BD71" s="2"/>
       <c r="BE71" s="2"/>
-    </row>
-    <row r="72" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF71" s="2"/>
+      <c r="BG71" s="2"/>
+      <c r="BH71" s="2"/>
+      <c r="BI71" s="2"/>
+    </row>
+    <row r="72" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -4981,8 +5564,12 @@
       <c r="BC72" s="2"/>
       <c r="BD72" s="2"/>
       <c r="BE72" s="2"/>
-    </row>
-    <row r="73" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF72" s="2"/>
+      <c r="BG72" s="2"/>
+      <c r="BH72" s="2"/>
+      <c r="BI72" s="2"/>
+    </row>
+    <row r="73" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -5038,8 +5625,12 @@
       <c r="BC73" s="2"/>
       <c r="BD73" s="2"/>
       <c r="BE73" s="2"/>
-    </row>
-    <row r="74" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF73" s="2"/>
+      <c r="BG73" s="2"/>
+      <c r="BH73" s="2"/>
+      <c r="BI73" s="2"/>
+    </row>
+    <row r="74" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -5095,8 +5686,12 @@
       <c r="BC74" s="2"/>
       <c r="BD74" s="2"/>
       <c r="BE74" s="2"/>
-    </row>
-    <row r="75" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF74" s="2"/>
+      <c r="BG74" s="2"/>
+      <c r="BH74" s="2"/>
+      <c r="BI74" s="2"/>
+    </row>
+    <row r="75" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -5152,8 +5747,12 @@
       <c r="BC75" s="2"/>
       <c r="BD75" s="2"/>
       <c r="BE75" s="2"/>
-    </row>
-    <row r="76" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF75" s="2"/>
+      <c r="BG75" s="2"/>
+      <c r="BH75" s="2"/>
+      <c r="BI75" s="2"/>
+    </row>
+    <row r="76" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -5209,8 +5808,12 @@
       <c r="BC76" s="2"/>
       <c r="BD76" s="2"/>
       <c r="BE76" s="2"/>
-    </row>
-    <row r="77" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF76" s="2"/>
+      <c r="BG76" s="2"/>
+      <c r="BH76" s="2"/>
+      <c r="BI76" s="2"/>
+    </row>
+    <row r="77" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -5266,8 +5869,12 @@
       <c r="BC77" s="2"/>
       <c r="BD77" s="2"/>
       <c r="BE77" s="2"/>
-    </row>
-    <row r="78" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF77" s="2"/>
+      <c r="BG77" s="2"/>
+      <c r="BH77" s="2"/>
+      <c r="BI77" s="2"/>
+    </row>
+    <row r="78" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -5323,8 +5930,12 @@
       <c r="BC78" s="2"/>
       <c r="BD78" s="2"/>
       <c r="BE78" s="2"/>
-    </row>
-    <row r="79" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF78" s="2"/>
+      <c r="BG78" s="2"/>
+      <c r="BH78" s="2"/>
+      <c r="BI78" s="2"/>
+    </row>
+    <row r="79" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -5380,8 +5991,12 @@
       <c r="BC79" s="2"/>
       <c r="BD79" s="2"/>
       <c r="BE79" s="2"/>
-    </row>
-    <row r="80" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF79" s="2"/>
+      <c r="BG79" s="2"/>
+      <c r="BH79" s="2"/>
+      <c r="BI79" s="2"/>
+    </row>
+    <row r="80" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -5437,8 +6052,12 @@
       <c r="BC80" s="2"/>
       <c r="BD80" s="2"/>
       <c r="BE80" s="2"/>
-    </row>
-    <row r="81" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF80" s="2"/>
+      <c r="BG80" s="2"/>
+      <c r="BH80" s="2"/>
+      <c r="BI80" s="2"/>
+    </row>
+    <row r="81" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -5494,8 +6113,12 @@
       <c r="BC81" s="2"/>
       <c r="BD81" s="2"/>
       <c r="BE81" s="2"/>
-    </row>
-    <row r="82" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF81" s="2"/>
+      <c r="BG81" s="2"/>
+      <c r="BH81" s="2"/>
+      <c r="BI81" s="2"/>
+    </row>
+    <row r="82" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -5551,8 +6174,12 @@
       <c r="BC82" s="2"/>
       <c r="BD82" s="2"/>
       <c r="BE82" s="2"/>
-    </row>
-    <row r="83" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF82" s="2"/>
+      <c r="BG82" s="2"/>
+      <c r="BH82" s="2"/>
+      <c r="BI82" s="2"/>
+    </row>
+    <row r="83" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -5608,8 +6235,12 @@
       <c r="BC83" s="2"/>
       <c r="BD83" s="2"/>
       <c r="BE83" s="2"/>
-    </row>
-    <row r="84" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF83" s="2"/>
+      <c r="BG83" s="2"/>
+      <c r="BH83" s="2"/>
+      <c r="BI83" s="2"/>
+    </row>
+    <row r="84" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -5665,8 +6296,12 @@
       <c r="BC84" s="2"/>
       <c r="BD84" s="2"/>
       <c r="BE84" s="2"/>
-    </row>
-    <row r="85" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF84" s="2"/>
+      <c r="BG84" s="2"/>
+      <c r="BH84" s="2"/>
+      <c r="BI84" s="2"/>
+    </row>
+    <row r="85" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -5722,8 +6357,12 @@
       <c r="BC85" s="2"/>
       <c r="BD85" s="2"/>
       <c r="BE85" s="2"/>
-    </row>
-    <row r="86" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF85" s="2"/>
+      <c r="BG85" s="2"/>
+      <c r="BH85" s="2"/>
+      <c r="BI85" s="2"/>
+    </row>
+    <row r="86" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -5779,8 +6418,12 @@
       <c r="BC86" s="2"/>
       <c r="BD86" s="2"/>
       <c r="BE86" s="2"/>
-    </row>
-    <row r="87" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF86" s="2"/>
+      <c r="BG86" s="2"/>
+      <c r="BH86" s="2"/>
+      <c r="BI86" s="2"/>
+    </row>
+    <row r="87" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -5836,8 +6479,12 @@
       <c r="BC87" s="2"/>
       <c r="BD87" s="2"/>
       <c r="BE87" s="2"/>
-    </row>
-    <row r="88" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF87" s="2"/>
+      <c r="BG87" s="2"/>
+      <c r="BH87" s="2"/>
+      <c r="BI87" s="2"/>
+    </row>
+    <row r="88" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -5893,8 +6540,12 @@
       <c r="BC88" s="2"/>
       <c r="BD88" s="2"/>
       <c r="BE88" s="2"/>
-    </row>
-    <row r="89" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF88" s="2"/>
+      <c r="BG88" s="2"/>
+      <c r="BH88" s="2"/>
+      <c r="BI88" s="2"/>
+    </row>
+    <row r="89" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -5950,8 +6601,12 @@
       <c r="BC89" s="2"/>
       <c r="BD89" s="2"/>
       <c r="BE89" s="2"/>
-    </row>
-    <row r="90" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF89" s="2"/>
+      <c r="BG89" s="2"/>
+      <c r="BH89" s="2"/>
+      <c r="BI89" s="2"/>
+    </row>
+    <row r="90" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -6007,8 +6662,12 @@
       <c r="BC90" s="2"/>
       <c r="BD90" s="2"/>
       <c r="BE90" s="2"/>
-    </row>
-    <row r="91" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF90" s="2"/>
+      <c r="BG90" s="2"/>
+      <c r="BH90" s="2"/>
+      <c r="BI90" s="2"/>
+    </row>
+    <row r="91" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -6064,8 +6723,12 @@
       <c r="BC91" s="2"/>
       <c r="BD91" s="2"/>
       <c r="BE91" s="2"/>
-    </row>
-    <row r="92" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF91" s="2"/>
+      <c r="BG91" s="2"/>
+      <c r="BH91" s="2"/>
+      <c r="BI91" s="2"/>
+    </row>
+    <row r="92" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -6121,8 +6784,12 @@
       <c r="BC92" s="2"/>
       <c r="BD92" s="2"/>
       <c r="BE92" s="2"/>
-    </row>
-    <row r="93" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF92" s="2"/>
+      <c r="BG92" s="2"/>
+      <c r="BH92" s="2"/>
+      <c r="BI92" s="2"/>
+    </row>
+    <row r="93" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -6178,8 +6845,12 @@
       <c r="BC93" s="2"/>
       <c r="BD93" s="2"/>
       <c r="BE93" s="2"/>
-    </row>
-    <row r="94" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF93" s="2"/>
+      <c r="BG93" s="2"/>
+      <c r="BH93" s="2"/>
+      <c r="BI93" s="2"/>
+    </row>
+    <row r="94" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -6235,8 +6906,12 @@
       <c r="BC94" s="2"/>
       <c r="BD94" s="2"/>
       <c r="BE94" s="2"/>
-    </row>
-    <row r="95" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF94" s="2"/>
+      <c r="BG94" s="2"/>
+      <c r="BH94" s="2"/>
+      <c r="BI94" s="2"/>
+    </row>
+    <row r="95" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -6292,8 +6967,12 @@
       <c r="BC95" s="2"/>
       <c r="BD95" s="2"/>
       <c r="BE95" s="2"/>
-    </row>
-    <row r="96" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF95" s="2"/>
+      <c r="BG95" s="2"/>
+      <c r="BH95" s="2"/>
+      <c r="BI95" s="2"/>
+    </row>
+    <row r="96" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -6349,8 +7028,12 @@
       <c r="BC96" s="2"/>
       <c r="BD96" s="2"/>
       <c r="BE96" s="2"/>
-    </row>
-    <row r="97" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF96" s="2"/>
+      <c r="BG96" s="2"/>
+      <c r="BH96" s="2"/>
+      <c r="BI96" s="2"/>
+    </row>
+    <row r="97" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -6406,8 +7089,12 @@
       <c r="BC97" s="2"/>
       <c r="BD97" s="2"/>
       <c r="BE97" s="2"/>
-    </row>
-    <row r="98" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF97" s="2"/>
+      <c r="BG97" s="2"/>
+      <c r="BH97" s="2"/>
+      <c r="BI97" s="2"/>
+    </row>
+    <row r="98" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -6463,8 +7150,12 @@
       <c r="BC98" s="2"/>
       <c r="BD98" s="2"/>
       <c r="BE98" s="2"/>
-    </row>
-    <row r="99" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF98" s="2"/>
+      <c r="BG98" s="2"/>
+      <c r="BH98" s="2"/>
+      <c r="BI98" s="2"/>
+    </row>
+    <row r="99" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -6520,8 +7211,12 @@
       <c r="BC99" s="2"/>
       <c r="BD99" s="2"/>
       <c r="BE99" s="2"/>
-    </row>
-    <row r="100" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF99" s="2"/>
+      <c r="BG99" s="2"/>
+      <c r="BH99" s="2"/>
+      <c r="BI99" s="2"/>
+    </row>
+    <row r="100" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -6577,8 +7272,12 @@
       <c r="BC100" s="2"/>
       <c r="BD100" s="2"/>
       <c r="BE100" s="2"/>
-    </row>
-    <row r="101" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF100" s="2"/>
+      <c r="BG100" s="2"/>
+      <c r="BH100" s="2"/>
+      <c r="BI100" s="2"/>
+    </row>
+    <row r="101" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -6634,8 +7333,12 @@
       <c r="BC101" s="2"/>
       <c r="BD101" s="2"/>
       <c r="BE101" s="2"/>
-    </row>
-    <row r="102" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF101" s="2"/>
+      <c r="BG101" s="2"/>
+      <c r="BH101" s="2"/>
+      <c r="BI101" s="2"/>
+    </row>
+    <row r="102" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -6691,8 +7394,12 @@
       <c r="BC102" s="2"/>
       <c r="BD102" s="2"/>
       <c r="BE102" s="2"/>
-    </row>
-    <row r="103" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF102" s="2"/>
+      <c r="BG102" s="2"/>
+      <c r="BH102" s="2"/>
+      <c r="BI102" s="2"/>
+    </row>
+    <row r="103" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -6748,8 +7455,12 @@
       <c r="BC103" s="2"/>
       <c r="BD103" s="2"/>
       <c r="BE103" s="2"/>
-    </row>
-    <row r="104" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF103" s="2"/>
+      <c r="BG103" s="2"/>
+      <c r="BH103" s="2"/>
+      <c r="BI103" s="2"/>
+    </row>
+    <row r="104" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -6805,8 +7516,12 @@
       <c r="BC104" s="2"/>
       <c r="BD104" s="2"/>
       <c r="BE104" s="2"/>
-    </row>
-    <row r="105" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF104" s="2"/>
+      <c r="BG104" s="2"/>
+      <c r="BH104" s="2"/>
+      <c r="BI104" s="2"/>
+    </row>
+    <row r="105" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -6862,8 +7577,12 @@
       <c r="BC105" s="2"/>
       <c r="BD105" s="2"/>
       <c r="BE105" s="2"/>
-    </row>
-    <row r="106" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF105" s="2"/>
+      <c r="BG105" s="2"/>
+      <c r="BH105" s="2"/>
+      <c r="BI105" s="2"/>
+    </row>
+    <row r="106" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -6919,8 +7638,12 @@
       <c r="BC106" s="2"/>
       <c r="BD106" s="2"/>
       <c r="BE106" s="2"/>
-    </row>
-    <row r="107" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF106" s="2"/>
+      <c r="BG106" s="2"/>
+      <c r="BH106" s="2"/>
+      <c r="BI106" s="2"/>
+    </row>
+    <row r="107" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -6976,8 +7699,12 @@
       <c r="BC107" s="2"/>
       <c r="BD107" s="2"/>
       <c r="BE107" s="2"/>
-    </row>
-    <row r="108" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF107" s="2"/>
+      <c r="BG107" s="2"/>
+      <c r="BH107" s="2"/>
+      <c r="BI107" s="2"/>
+    </row>
+    <row r="108" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -7033,8 +7760,12 @@
       <c r="BC108" s="2"/>
       <c r="BD108" s="2"/>
       <c r="BE108" s="2"/>
-    </row>
-    <row r="109" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF108" s="2"/>
+      <c r="BG108" s="2"/>
+      <c r="BH108" s="2"/>
+      <c r="BI108" s="2"/>
+    </row>
+    <row r="109" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -7090,8 +7821,12 @@
       <c r="BC109" s="2"/>
       <c r="BD109" s="2"/>
       <c r="BE109" s="2"/>
-    </row>
-    <row r="110" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF109" s="2"/>
+      <c r="BG109" s="2"/>
+      <c r="BH109" s="2"/>
+      <c r="BI109" s="2"/>
+    </row>
+    <row r="110" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -7147,8 +7882,12 @@
       <c r="BC110" s="2"/>
       <c r="BD110" s="2"/>
       <c r="BE110" s="2"/>
-    </row>
-    <row r="111" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF110" s="2"/>
+      <c r="BG110" s="2"/>
+      <c r="BH110" s="2"/>
+      <c r="BI110" s="2"/>
+    </row>
+    <row r="111" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -7204,8 +7943,12 @@
       <c r="BC111" s="2"/>
       <c r="BD111" s="2"/>
       <c r="BE111" s="2"/>
-    </row>
-    <row r="112" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF111" s="2"/>
+      <c r="BG111" s="2"/>
+      <c r="BH111" s="2"/>
+      <c r="BI111" s="2"/>
+    </row>
+    <row r="112" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -7261,8 +8004,12 @@
       <c r="BC112" s="2"/>
       <c r="BD112" s="2"/>
       <c r="BE112" s="2"/>
-    </row>
-    <row r="113" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF112" s="2"/>
+      <c r="BG112" s="2"/>
+      <c r="BH112" s="2"/>
+      <c r="BI112" s="2"/>
+    </row>
+    <row r="113" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -7318,8 +8065,12 @@
       <c r="BC113" s="2"/>
       <c r="BD113" s="2"/>
       <c r="BE113" s="2"/>
-    </row>
-    <row r="114" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF113" s="2"/>
+      <c r="BG113" s="2"/>
+      <c r="BH113" s="2"/>
+      <c r="BI113" s="2"/>
+    </row>
+    <row r="114" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -7375,8 +8126,12 @@
       <c r="BC114" s="2"/>
       <c r="BD114" s="2"/>
       <c r="BE114" s="2"/>
-    </row>
-    <row r="115" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF114" s="2"/>
+      <c r="BG114" s="2"/>
+      <c r="BH114" s="2"/>
+      <c r="BI114" s="2"/>
+    </row>
+    <row r="115" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -7432,8 +8187,12 @@
       <c r="BC115" s="2"/>
       <c r="BD115" s="2"/>
       <c r="BE115" s="2"/>
-    </row>
-    <row r="116" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF115" s="2"/>
+      <c r="BG115" s="2"/>
+      <c r="BH115" s="2"/>
+      <c r="BI115" s="2"/>
+    </row>
+    <row r="116" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -7489,8 +8248,12 @@
       <c r="BC116" s="2"/>
       <c r="BD116" s="2"/>
       <c r="BE116" s="2"/>
-    </row>
-    <row r="117" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF116" s="2"/>
+      <c r="BG116" s="2"/>
+      <c r="BH116" s="2"/>
+      <c r="BI116" s="2"/>
+    </row>
+    <row r="117" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -7546,8 +8309,12 @@
       <c r="BC117" s="2"/>
       <c r="BD117" s="2"/>
       <c r="BE117" s="2"/>
-    </row>
-    <row r="118" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF117" s="2"/>
+      <c r="BG117" s="2"/>
+      <c r="BH117" s="2"/>
+      <c r="BI117" s="2"/>
+    </row>
+    <row r="118" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -7603,8 +8370,12 @@
       <c r="BC118" s="2"/>
       <c r="BD118" s="2"/>
       <c r="BE118" s="2"/>
-    </row>
-    <row r="119" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF118" s="2"/>
+      <c r="BG118" s="2"/>
+      <c r="BH118" s="2"/>
+      <c r="BI118" s="2"/>
+    </row>
+    <row r="119" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -7660,8 +8431,12 @@
       <c r="BC119" s="2"/>
       <c r="BD119" s="2"/>
       <c r="BE119" s="2"/>
-    </row>
-    <row r="120" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF119" s="2"/>
+      <c r="BG119" s="2"/>
+      <c r="BH119" s="2"/>
+      <c r="BI119" s="2"/>
+    </row>
+    <row r="120" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -7717,8 +8492,12 @@
       <c r="BC120" s="2"/>
       <c r="BD120" s="2"/>
       <c r="BE120" s="2"/>
-    </row>
-    <row r="121" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF120" s="2"/>
+      <c r="BG120" s="2"/>
+      <c r="BH120" s="2"/>
+      <c r="BI120" s="2"/>
+    </row>
+    <row r="121" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -7774,8 +8553,12 @@
       <c r="BC121" s="2"/>
       <c r="BD121" s="2"/>
       <c r="BE121" s="2"/>
-    </row>
-    <row r="122" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF121" s="2"/>
+      <c r="BG121" s="2"/>
+      <c r="BH121" s="2"/>
+      <c r="BI121" s="2"/>
+    </row>
+    <row r="122" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -7831,8 +8614,12 @@
       <c r="BC122" s="2"/>
       <c r="BD122" s="2"/>
       <c r="BE122" s="2"/>
-    </row>
-    <row r="123" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF122" s="2"/>
+      <c r="BG122" s="2"/>
+      <c r="BH122" s="2"/>
+      <c r="BI122" s="2"/>
+    </row>
+    <row r="123" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -7888,8 +8675,12 @@
       <c r="BC123" s="2"/>
       <c r="BD123" s="2"/>
       <c r="BE123" s="2"/>
-    </row>
-    <row r="124" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF123" s="2"/>
+      <c r="BG123" s="2"/>
+      <c r="BH123" s="2"/>
+      <c r="BI123" s="2"/>
+    </row>
+    <row r="124" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -7945,8 +8736,12 @@
       <c r="BC124" s="2"/>
       <c r="BD124" s="2"/>
       <c r="BE124" s="2"/>
-    </row>
-    <row r="125" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF124" s="2"/>
+      <c r="BG124" s="2"/>
+      <c r="BH124" s="2"/>
+      <c r="BI124" s="2"/>
+    </row>
+    <row r="125" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -8002,8 +8797,12 @@
       <c r="BC125" s="2"/>
       <c r="BD125" s="2"/>
       <c r="BE125" s="2"/>
-    </row>
-    <row r="126" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF125" s="2"/>
+      <c r="BG125" s="2"/>
+      <c r="BH125" s="2"/>
+      <c r="BI125" s="2"/>
+    </row>
+    <row r="126" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -8059,8 +8858,12 @@
       <c r="BC126" s="2"/>
       <c r="BD126" s="2"/>
       <c r="BE126" s="2"/>
-    </row>
-    <row r="127" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF126" s="2"/>
+      <c r="BG126" s="2"/>
+      <c r="BH126" s="2"/>
+      <c r="BI126" s="2"/>
+    </row>
+    <row r="127" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -8116,8 +8919,12 @@
       <c r="BC127" s="2"/>
       <c r="BD127" s="2"/>
       <c r="BE127" s="2"/>
-    </row>
-    <row r="128" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF127" s="2"/>
+      <c r="BG127" s="2"/>
+      <c r="BH127" s="2"/>
+      <c r="BI127" s="2"/>
+    </row>
+    <row r="128" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -8173,8 +8980,12 @@
       <c r="BC128" s="2"/>
       <c r="BD128" s="2"/>
       <c r="BE128" s="2"/>
-    </row>
-    <row r="129" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF128" s="2"/>
+      <c r="BG128" s="2"/>
+      <c r="BH128" s="2"/>
+      <c r="BI128" s="2"/>
+    </row>
+    <row r="129" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -8230,8 +9041,12 @@
       <c r="BC129" s="2"/>
       <c r="BD129" s="2"/>
       <c r="BE129" s="2"/>
-    </row>
-    <row r="130" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF129" s="2"/>
+      <c r="BG129" s="2"/>
+      <c r="BH129" s="2"/>
+      <c r="BI129" s="2"/>
+    </row>
+    <row r="130" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -8287,8 +9102,12 @@
       <c r="BC130" s="2"/>
       <c r="BD130" s="2"/>
       <c r="BE130" s="2"/>
-    </row>
-    <row r="131" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF130" s="2"/>
+      <c r="BG130" s="2"/>
+      <c r="BH130" s="2"/>
+      <c r="BI130" s="2"/>
+    </row>
+    <row r="131" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -8344,8 +9163,12 @@
       <c r="BC131" s="2"/>
       <c r="BD131" s="2"/>
       <c r="BE131" s="2"/>
-    </row>
-    <row r="132" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF131" s="2"/>
+      <c r="BG131" s="2"/>
+      <c r="BH131" s="2"/>
+      <c r="BI131" s="2"/>
+    </row>
+    <row r="132" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -8401,8 +9224,12 @@
       <c r="BC132" s="2"/>
       <c r="BD132" s="2"/>
       <c r="BE132" s="2"/>
-    </row>
-    <row r="133" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF132" s="2"/>
+      <c r="BG132" s="2"/>
+      <c r="BH132" s="2"/>
+      <c r="BI132" s="2"/>
+    </row>
+    <row r="133" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -8458,8 +9285,12 @@
       <c r="BC133" s="2"/>
       <c r="BD133" s="2"/>
       <c r="BE133" s="2"/>
-    </row>
-    <row r="134" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF133" s="2"/>
+      <c r="BG133" s="2"/>
+      <c r="BH133" s="2"/>
+      <c r="BI133" s="2"/>
+    </row>
+    <row r="134" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -8515,8 +9346,12 @@
       <c r="BC134" s="2"/>
       <c r="BD134" s="2"/>
       <c r="BE134" s="2"/>
-    </row>
-    <row r="135" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF134" s="2"/>
+      <c r="BG134" s="2"/>
+      <c r="BH134" s="2"/>
+      <c r="BI134" s="2"/>
+    </row>
+    <row r="135" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -8572,8 +9407,12 @@
       <c r="BC135" s="2"/>
       <c r="BD135" s="2"/>
       <c r="BE135" s="2"/>
-    </row>
-    <row r="136" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF135" s="2"/>
+      <c r="BG135" s="2"/>
+      <c r="BH135" s="2"/>
+      <c r="BI135" s="2"/>
+    </row>
+    <row r="136" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -8629,8 +9468,12 @@
       <c r="BC136" s="2"/>
       <c r="BD136" s="2"/>
       <c r="BE136" s="2"/>
-    </row>
-    <row r="137" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF136" s="2"/>
+      <c r="BG136" s="2"/>
+      <c r="BH136" s="2"/>
+      <c r="BI136" s="2"/>
+    </row>
+    <row r="137" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -8686,8 +9529,12 @@
       <c r="BC137" s="2"/>
       <c r="BD137" s="2"/>
       <c r="BE137" s="2"/>
-    </row>
-    <row r="138" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF137" s="2"/>
+      <c r="BG137" s="2"/>
+      <c r="BH137" s="2"/>
+      <c r="BI137" s="2"/>
+    </row>
+    <row r="138" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -8743,8 +9590,12 @@
       <c r="BC138" s="2"/>
       <c r="BD138" s="2"/>
       <c r="BE138" s="2"/>
-    </row>
-    <row r="139" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF138" s="2"/>
+      <c r="BG138" s="2"/>
+      <c r="BH138" s="2"/>
+      <c r="BI138" s="2"/>
+    </row>
+    <row r="139" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -8800,8 +9651,12 @@
       <c r="BC139" s="2"/>
       <c r="BD139" s="2"/>
       <c r="BE139" s="2"/>
-    </row>
-    <row r="140" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF139" s="2"/>
+      <c r="BG139" s="2"/>
+      <c r="BH139" s="2"/>
+      <c r="BI139" s="2"/>
+    </row>
+    <row r="140" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -8857,8 +9712,12 @@
       <c r="BC140" s="2"/>
       <c r="BD140" s="2"/>
       <c r="BE140" s="2"/>
-    </row>
-    <row r="141" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF140" s="2"/>
+      <c r="BG140" s="2"/>
+      <c r="BH140" s="2"/>
+      <c r="BI140" s="2"/>
+    </row>
+    <row r="141" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -8914,8 +9773,12 @@
       <c r="BC141" s="2"/>
       <c r="BD141" s="2"/>
       <c r="BE141" s="2"/>
-    </row>
-    <row r="142" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF141" s="2"/>
+      <c r="BG141" s="2"/>
+      <c r="BH141" s="2"/>
+      <c r="BI141" s="2"/>
+    </row>
+    <row r="142" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -8971,8 +9834,12 @@
       <c r="BC142" s="2"/>
       <c r="BD142" s="2"/>
       <c r="BE142" s="2"/>
-    </row>
-    <row r="143" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF142" s="2"/>
+      <c r="BG142" s="2"/>
+      <c r="BH142" s="2"/>
+      <c r="BI142" s="2"/>
+    </row>
+    <row r="143" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -9028,8 +9895,12 @@
       <c r="BC143" s="2"/>
       <c r="BD143" s="2"/>
       <c r="BE143" s="2"/>
-    </row>
-    <row r="144" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF143" s="2"/>
+      <c r="BG143" s="2"/>
+      <c r="BH143" s="2"/>
+      <c r="BI143" s="2"/>
+    </row>
+    <row r="144" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -9085,8 +9956,12 @@
       <c r="BC144" s="2"/>
       <c r="BD144" s="2"/>
       <c r="BE144" s="2"/>
-    </row>
-    <row r="145" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF144" s="2"/>
+      <c r="BG144" s="2"/>
+      <c r="BH144" s="2"/>
+      <c r="BI144" s="2"/>
+    </row>
+    <row r="145" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -9142,8 +10017,12 @@
       <c r="BC145" s="2"/>
       <c r="BD145" s="2"/>
       <c r="BE145" s="2"/>
-    </row>
-    <row r="146" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF145" s="2"/>
+      <c r="BG145" s="2"/>
+      <c r="BH145" s="2"/>
+      <c r="BI145" s="2"/>
+    </row>
+    <row r="146" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -9199,8 +10078,12 @@
       <c r="BC146" s="2"/>
       <c r="BD146" s="2"/>
       <c r="BE146" s="2"/>
-    </row>
-    <row r="147" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF146" s="2"/>
+      <c r="BG146" s="2"/>
+      <c r="BH146" s="2"/>
+      <c r="BI146" s="2"/>
+    </row>
+    <row r="147" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -9256,8 +10139,12 @@
       <c r="BC147" s="2"/>
       <c r="BD147" s="2"/>
       <c r="BE147" s="2"/>
-    </row>
-    <row r="148" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF147" s="2"/>
+      <c r="BG147" s="2"/>
+      <c r="BH147" s="2"/>
+      <c r="BI147" s="2"/>
+    </row>
+    <row r="148" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -9313,8 +10200,12 @@
       <c r="BC148" s="2"/>
       <c r="BD148" s="2"/>
       <c r="BE148" s="2"/>
-    </row>
-    <row r="149" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF148" s="2"/>
+      <c r="BG148" s="2"/>
+      <c r="BH148" s="2"/>
+      <c r="BI148" s="2"/>
+    </row>
+    <row r="149" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -9370,8 +10261,12 @@
       <c r="BC149" s="2"/>
       <c r="BD149" s="2"/>
       <c r="BE149" s="2"/>
-    </row>
-    <row r="150" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF149" s="2"/>
+      <c r="BG149" s="2"/>
+      <c r="BH149" s="2"/>
+      <c r="BI149" s="2"/>
+    </row>
+    <row r="150" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -9427,8 +10322,12 @@
       <c r="BC150" s="2"/>
       <c r="BD150" s="2"/>
       <c r="BE150" s="2"/>
-    </row>
-    <row r="151" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF150" s="2"/>
+      <c r="BG150" s="2"/>
+      <c r="BH150" s="2"/>
+      <c r="BI150" s="2"/>
+    </row>
+    <row r="151" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -9484,8 +10383,12 @@
       <c r="BC151" s="2"/>
       <c r="BD151" s="2"/>
       <c r="BE151" s="2"/>
-    </row>
-    <row r="152" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF151" s="2"/>
+      <c r="BG151" s="2"/>
+      <c r="BH151" s="2"/>
+      <c r="BI151" s="2"/>
+    </row>
+    <row r="152" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -9541,8 +10444,12 @@
       <c r="BC152" s="2"/>
       <c r="BD152" s="2"/>
       <c r="BE152" s="2"/>
-    </row>
-    <row r="153" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF152" s="2"/>
+      <c r="BG152" s="2"/>
+      <c r="BH152" s="2"/>
+      <c r="BI152" s="2"/>
+    </row>
+    <row r="153" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -9598,8 +10505,12 @@
       <c r="BC153" s="2"/>
       <c r="BD153" s="2"/>
       <c r="BE153" s="2"/>
-    </row>
-    <row r="154" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF153" s="2"/>
+      <c r="BG153" s="2"/>
+      <c r="BH153" s="2"/>
+      <c r="BI153" s="2"/>
+    </row>
+    <row r="154" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -9655,8 +10566,12 @@
       <c r="BC154" s="2"/>
       <c r="BD154" s="2"/>
       <c r="BE154" s="2"/>
-    </row>
-    <row r="155" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF154" s="2"/>
+      <c r="BG154" s="2"/>
+      <c r="BH154" s="2"/>
+      <c r="BI154" s="2"/>
+    </row>
+    <row r="155" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -9712,8 +10627,12 @@
       <c r="BC155" s="2"/>
       <c r="BD155" s="2"/>
       <c r="BE155" s="2"/>
-    </row>
-    <row r="156" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF155" s="2"/>
+      <c r="BG155" s="2"/>
+      <c r="BH155" s="2"/>
+      <c r="BI155" s="2"/>
+    </row>
+    <row r="156" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -9769,8 +10688,12 @@
       <c r="BC156" s="2"/>
       <c r="BD156" s="2"/>
       <c r="BE156" s="2"/>
-    </row>
-    <row r="157" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF156" s="2"/>
+      <c r="BG156" s="2"/>
+      <c r="BH156" s="2"/>
+      <c r="BI156" s="2"/>
+    </row>
+    <row r="157" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -9826,8 +10749,12 @@
       <c r="BC157" s="2"/>
       <c r="BD157" s="2"/>
       <c r="BE157" s="2"/>
-    </row>
-    <row r="158" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF157" s="2"/>
+      <c r="BG157" s="2"/>
+      <c r="BH157" s="2"/>
+      <c r="BI157" s="2"/>
+    </row>
+    <row r="158" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -9883,8 +10810,12 @@
       <c r="BC158" s="2"/>
       <c r="BD158" s="2"/>
       <c r="BE158" s="2"/>
-    </row>
-    <row r="159" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF158" s="2"/>
+      <c r="BG158" s="2"/>
+      <c r="BH158" s="2"/>
+      <c r="BI158" s="2"/>
+    </row>
+    <row r="159" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -9940,8 +10871,12 @@
       <c r="BC159" s="2"/>
       <c r="BD159" s="2"/>
       <c r="BE159" s="2"/>
-    </row>
-    <row r="160" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF159" s="2"/>
+      <c r="BG159" s="2"/>
+      <c r="BH159" s="2"/>
+      <c r="BI159" s="2"/>
+    </row>
+    <row r="160" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -9997,8 +10932,12 @@
       <c r="BC160" s="2"/>
       <c r="BD160" s="2"/>
       <c r="BE160" s="2"/>
-    </row>
-    <row r="161" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF160" s="2"/>
+      <c r="BG160" s="2"/>
+      <c r="BH160" s="2"/>
+      <c r="BI160" s="2"/>
+    </row>
+    <row r="161" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -10054,8 +10993,12 @@
       <c r="BC161" s="2"/>
       <c r="BD161" s="2"/>
       <c r="BE161" s="2"/>
-    </row>
-    <row r="162" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF161" s="2"/>
+      <c r="BG161" s="2"/>
+      <c r="BH161" s="2"/>
+      <c r="BI161" s="2"/>
+    </row>
+    <row r="162" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -10111,8 +11054,12 @@
       <c r="BC162" s="2"/>
       <c r="BD162" s="2"/>
       <c r="BE162" s="2"/>
-    </row>
-    <row r="163" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF162" s="2"/>
+      <c r="BG162" s="2"/>
+      <c r="BH162" s="2"/>
+      <c r="BI162" s="2"/>
+    </row>
+    <row r="163" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -10168,8 +11115,12 @@
       <c r="BC163" s="2"/>
       <c r="BD163" s="2"/>
       <c r="BE163" s="2"/>
-    </row>
-    <row r="164" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF163" s="2"/>
+      <c r="BG163" s="2"/>
+      <c r="BH163" s="2"/>
+      <c r="BI163" s="2"/>
+    </row>
+    <row r="164" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -10225,8 +11176,12 @@
       <c r="BC164" s="2"/>
       <c r="BD164" s="2"/>
       <c r="BE164" s="2"/>
-    </row>
-    <row r="165" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF164" s="2"/>
+      <c r="BG164" s="2"/>
+      <c r="BH164" s="2"/>
+      <c r="BI164" s="2"/>
+    </row>
+    <row r="165" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -10282,8 +11237,12 @@
       <c r="BC165" s="2"/>
       <c r="BD165" s="2"/>
       <c r="BE165" s="2"/>
-    </row>
-    <row r="166" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF165" s="2"/>
+      <c r="BG165" s="2"/>
+      <c r="BH165" s="2"/>
+      <c r="BI165" s="2"/>
+    </row>
+    <row r="166" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -10339,8 +11298,12 @@
       <c r="BC166" s="2"/>
       <c r="BD166" s="2"/>
       <c r="BE166" s="2"/>
-    </row>
-    <row r="167" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF166" s="2"/>
+      <c r="BG166" s="2"/>
+      <c r="BH166" s="2"/>
+      <c r="BI166" s="2"/>
+    </row>
+    <row r="167" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -10396,8 +11359,12 @@
       <c r="BC167" s="2"/>
       <c r="BD167" s="2"/>
       <c r="BE167" s="2"/>
-    </row>
-    <row r="168" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF167" s="2"/>
+      <c r="BG167" s="2"/>
+      <c r="BH167" s="2"/>
+      <c r="BI167" s="2"/>
+    </row>
+    <row r="168" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -10453,8 +11420,12 @@
       <c r="BC168" s="2"/>
       <c r="BD168" s="2"/>
       <c r="BE168" s="2"/>
-    </row>
-    <row r="169" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF168" s="2"/>
+      <c r="BG168" s="2"/>
+      <c r="BH168" s="2"/>
+      <c r="BI168" s="2"/>
+    </row>
+    <row r="169" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -10510,8 +11481,12 @@
       <c r="BC169" s="2"/>
       <c r="BD169" s="2"/>
       <c r="BE169" s="2"/>
-    </row>
-    <row r="170" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF169" s="2"/>
+      <c r="BG169" s="2"/>
+      <c r="BH169" s="2"/>
+      <c r="BI169" s="2"/>
+    </row>
+    <row r="170" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -10567,8 +11542,12 @@
       <c r="BC170" s="2"/>
       <c r="BD170" s="2"/>
       <c r="BE170" s="2"/>
-    </row>
-    <row r="171" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF170" s="2"/>
+      <c r="BG170" s="2"/>
+      <c r="BH170" s="2"/>
+      <c r="BI170" s="2"/>
+    </row>
+    <row r="171" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -10624,8 +11603,12 @@
       <c r="BC171" s="2"/>
       <c r="BD171" s="2"/>
       <c r="BE171" s="2"/>
-    </row>
-    <row r="172" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF171" s="2"/>
+      <c r="BG171" s="2"/>
+      <c r="BH171" s="2"/>
+      <c r="BI171" s="2"/>
+    </row>
+    <row r="172" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -10681,8 +11664,12 @@
       <c r="BC172" s="2"/>
       <c r="BD172" s="2"/>
       <c r="BE172" s="2"/>
-    </row>
-    <row r="173" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF172" s="2"/>
+      <c r="BG172" s="2"/>
+      <c r="BH172" s="2"/>
+      <c r="BI172" s="2"/>
+    </row>
+    <row r="173" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -10738,8 +11725,12 @@
       <c r="BC173" s="2"/>
       <c r="BD173" s="2"/>
       <c r="BE173" s="2"/>
-    </row>
-    <row r="174" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF173" s="2"/>
+      <c r="BG173" s="2"/>
+      <c r="BH173" s="2"/>
+      <c r="BI173" s="2"/>
+    </row>
+    <row r="174" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -10795,8 +11786,12 @@
       <c r="BC174" s="2"/>
       <c r="BD174" s="2"/>
       <c r="BE174" s="2"/>
-    </row>
-    <row r="175" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF174" s="2"/>
+      <c r="BG174" s="2"/>
+      <c r="BH174" s="2"/>
+      <c r="BI174" s="2"/>
+    </row>
+    <row r="175" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -10852,8 +11847,12 @@
       <c r="BC175" s="2"/>
       <c r="BD175" s="2"/>
       <c r="BE175" s="2"/>
-    </row>
-    <row r="176" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF175" s="2"/>
+      <c r="BG175" s="2"/>
+      <c r="BH175" s="2"/>
+      <c r="BI175" s="2"/>
+    </row>
+    <row r="176" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -10909,8 +11908,12 @@
       <c r="BC176" s="2"/>
       <c r="BD176" s="2"/>
       <c r="BE176" s="2"/>
-    </row>
-    <row r="177" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF176" s="2"/>
+      <c r="BG176" s="2"/>
+      <c r="BH176" s="2"/>
+      <c r="BI176" s="2"/>
+    </row>
+    <row r="177" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -10966,8 +11969,12 @@
       <c r="BC177" s="2"/>
       <c r="BD177" s="2"/>
       <c r="BE177" s="2"/>
-    </row>
-    <row r="178" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF177" s="2"/>
+      <c r="BG177" s="2"/>
+      <c r="BH177" s="2"/>
+      <c r="BI177" s="2"/>
+    </row>
+    <row r="178" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -11023,8 +12030,12 @@
       <c r="BC178" s="2"/>
       <c r="BD178" s="2"/>
       <c r="BE178" s="2"/>
-    </row>
-    <row r="179" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF178" s="2"/>
+      <c r="BG178" s="2"/>
+      <c r="BH178" s="2"/>
+      <c r="BI178" s="2"/>
+    </row>
+    <row r="179" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -11080,8 +12091,12 @@
       <c r="BC179" s="2"/>
       <c r="BD179" s="2"/>
       <c r="BE179" s="2"/>
-    </row>
-    <row r="180" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF179" s="2"/>
+      <c r="BG179" s="2"/>
+      <c r="BH179" s="2"/>
+      <c r="BI179" s="2"/>
+    </row>
+    <row r="180" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -11137,8 +12152,12 @@
       <c r="BC180" s="2"/>
       <c r="BD180" s="2"/>
       <c r="BE180" s="2"/>
-    </row>
-    <row r="181" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF180" s="2"/>
+      <c r="BG180" s="2"/>
+      <c r="BH180" s="2"/>
+      <c r="BI180" s="2"/>
+    </row>
+    <row r="181" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -11194,8 +12213,12 @@
       <c r="BC181" s="2"/>
       <c r="BD181" s="2"/>
       <c r="BE181" s="2"/>
-    </row>
-    <row r="182" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF181" s="2"/>
+      <c r="BG181" s="2"/>
+      <c r="BH181" s="2"/>
+      <c r="BI181" s="2"/>
+    </row>
+    <row r="182" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -11251,8 +12274,12 @@
       <c r="BC182" s="2"/>
       <c r="BD182" s="2"/>
       <c r="BE182" s="2"/>
-    </row>
-    <row r="183" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF182" s="2"/>
+      <c r="BG182" s="2"/>
+      <c r="BH182" s="2"/>
+      <c r="BI182" s="2"/>
+    </row>
+    <row r="183" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -11308,8 +12335,12 @@
       <c r="BC183" s="2"/>
       <c r="BD183" s="2"/>
       <c r="BE183" s="2"/>
-    </row>
-    <row r="184" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF183" s="2"/>
+      <c r="BG183" s="2"/>
+      <c r="BH183" s="2"/>
+      <c r="BI183" s="2"/>
+    </row>
+    <row r="184" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -11365,8 +12396,12 @@
       <c r="BC184" s="2"/>
       <c r="BD184" s="2"/>
       <c r="BE184" s="2"/>
-    </row>
-    <row r="185" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF184" s="2"/>
+      <c r="BG184" s="2"/>
+      <c r="BH184" s="2"/>
+      <c r="BI184" s="2"/>
+    </row>
+    <row r="185" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -11422,8 +12457,12 @@
       <c r="BC185" s="2"/>
       <c r="BD185" s="2"/>
       <c r="BE185" s="2"/>
-    </row>
-    <row r="186" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF185" s="2"/>
+      <c r="BG185" s="2"/>
+      <c r="BH185" s="2"/>
+      <c r="BI185" s="2"/>
+    </row>
+    <row r="186" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -11479,8 +12518,12 @@
       <c r="BC186" s="2"/>
       <c r="BD186" s="2"/>
       <c r="BE186" s="2"/>
-    </row>
-    <row r="187" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF186" s="2"/>
+      <c r="BG186" s="2"/>
+      <c r="BH186" s="2"/>
+      <c r="BI186" s="2"/>
+    </row>
+    <row r="187" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -11536,8 +12579,12 @@
       <c r="BC187" s="2"/>
       <c r="BD187" s="2"/>
       <c r="BE187" s="2"/>
-    </row>
-    <row r="188" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF187" s="2"/>
+      <c r="BG187" s="2"/>
+      <c r="BH187" s="2"/>
+      <c r="BI187" s="2"/>
+    </row>
+    <row r="188" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -11593,8 +12640,12 @@
       <c r="BC188" s="2"/>
       <c r="BD188" s="2"/>
       <c r="BE188" s="2"/>
-    </row>
-    <row r="189" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF188" s="2"/>
+      <c r="BG188" s="2"/>
+      <c r="BH188" s="2"/>
+      <c r="BI188" s="2"/>
+    </row>
+    <row r="189" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -11650,8 +12701,12 @@
       <c r="BC189" s="2"/>
       <c r="BD189" s="2"/>
       <c r="BE189" s="2"/>
-    </row>
-    <row r="190" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF189" s="2"/>
+      <c r="BG189" s="2"/>
+      <c r="BH189" s="2"/>
+      <c r="BI189" s="2"/>
+    </row>
+    <row r="190" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -11707,8 +12762,12 @@
       <c r="BC190" s="2"/>
       <c r="BD190" s="2"/>
       <c r="BE190" s="2"/>
-    </row>
-    <row r="191" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF190" s="2"/>
+      <c r="BG190" s="2"/>
+      <c r="BH190" s="2"/>
+      <c r="BI190" s="2"/>
+    </row>
+    <row r="191" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -11764,8 +12823,12 @@
       <c r="BC191" s="2"/>
       <c r="BD191" s="2"/>
       <c r="BE191" s="2"/>
-    </row>
-    <row r="192" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF191" s="2"/>
+      <c r="BG191" s="2"/>
+      <c r="BH191" s="2"/>
+      <c r="BI191" s="2"/>
+    </row>
+    <row r="192" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -11821,8 +12884,12 @@
       <c r="BC192" s="2"/>
       <c r="BD192" s="2"/>
       <c r="BE192" s="2"/>
-    </row>
-    <row r="193" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF192" s="2"/>
+      <c r="BG192" s="2"/>
+      <c r="BH192" s="2"/>
+      <c r="BI192" s="2"/>
+    </row>
+    <row r="193" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -11878,8 +12945,12 @@
       <c r="BC193" s="2"/>
       <c r="BD193" s="2"/>
       <c r="BE193" s="2"/>
-    </row>
-    <row r="194" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF193" s="2"/>
+      <c r="BG193" s="2"/>
+      <c r="BH193" s="2"/>
+      <c r="BI193" s="2"/>
+    </row>
+    <row r="194" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -11935,8 +13006,12 @@
       <c r="BC194" s="2"/>
       <c r="BD194" s="2"/>
       <c r="BE194" s="2"/>
-    </row>
-    <row r="195" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF194" s="2"/>
+      <c r="BG194" s="2"/>
+      <c r="BH194" s="2"/>
+      <c r="BI194" s="2"/>
+    </row>
+    <row r="195" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -11992,8 +13067,12 @@
       <c r="BC195" s="2"/>
       <c r="BD195" s="2"/>
       <c r="BE195" s="2"/>
-    </row>
-    <row r="196" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF195" s="2"/>
+      <c r="BG195" s="2"/>
+      <c r="BH195" s="2"/>
+      <c r="BI195" s="2"/>
+    </row>
+    <row r="196" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -12049,8 +13128,12 @@
       <c r="BC196" s="2"/>
       <c r="BD196" s="2"/>
       <c r="BE196" s="2"/>
-    </row>
-    <row r="197" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF196" s="2"/>
+      <c r="BG196" s="2"/>
+      <c r="BH196" s="2"/>
+      <c r="BI196" s="2"/>
+    </row>
+    <row r="197" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -12106,8 +13189,12 @@
       <c r="BC197" s="2"/>
       <c r="BD197" s="2"/>
       <c r="BE197" s="2"/>
-    </row>
-    <row r="198" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF197" s="2"/>
+      <c r="BG197" s="2"/>
+      <c r="BH197" s="2"/>
+      <c r="BI197" s="2"/>
+    </row>
+    <row r="198" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -12163,8 +13250,12 @@
       <c r="BC198" s="2"/>
       <c r="BD198" s="2"/>
       <c r="BE198" s="2"/>
-    </row>
-    <row r="199" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF198" s="2"/>
+      <c r="BG198" s="2"/>
+      <c r="BH198" s="2"/>
+      <c r="BI198" s="2"/>
+    </row>
+    <row r="199" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -12220,8 +13311,12 @@
       <c r="BC199" s="2"/>
       <c r="BD199" s="2"/>
       <c r="BE199" s="2"/>
-    </row>
-    <row r="200" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF199" s="2"/>
+      <c r="BG199" s="2"/>
+      <c r="BH199" s="2"/>
+      <c r="BI199" s="2"/>
+    </row>
+    <row r="200" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -12277,8 +13372,12 @@
       <c r="BC200" s="2"/>
       <c r="BD200" s="2"/>
       <c r="BE200" s="2"/>
-    </row>
-    <row r="201" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF200" s="2"/>
+      <c r="BG200" s="2"/>
+      <c r="BH200" s="2"/>
+      <c r="BI200" s="2"/>
+    </row>
+    <row r="201" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -12334,8 +13433,12 @@
       <c r="BC201" s="2"/>
       <c r="BD201" s="2"/>
       <c r="BE201" s="2"/>
-    </row>
-    <row r="202" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF201" s="2"/>
+      <c r="BG201" s="2"/>
+      <c r="BH201" s="2"/>
+      <c r="BI201" s="2"/>
+    </row>
+    <row r="202" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -12391,8 +13494,12 @@
       <c r="BC202" s="2"/>
       <c r="BD202" s="2"/>
       <c r="BE202" s="2"/>
-    </row>
-    <row r="203" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF202" s="2"/>
+      <c r="BG202" s="2"/>
+      <c r="BH202" s="2"/>
+      <c r="BI202" s="2"/>
+    </row>
+    <row r="203" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
@@ -12448,8 +13555,12 @@
       <c r="BC203" s="2"/>
       <c r="BD203" s="2"/>
       <c r="BE203" s="2"/>
-    </row>
-    <row r="204" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF203" s="2"/>
+      <c r="BG203" s="2"/>
+      <c r="BH203" s="2"/>
+      <c r="BI203" s="2"/>
+    </row>
+    <row r="204" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -12505,8 +13616,12 @@
       <c r="BC204" s="2"/>
       <c r="BD204" s="2"/>
       <c r="BE204" s="2"/>
-    </row>
-    <row r="205" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF204" s="2"/>
+      <c r="BG204" s="2"/>
+      <c r="BH204" s="2"/>
+      <c r="BI204" s="2"/>
+    </row>
+    <row r="205" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -12562,8 +13677,12 @@
       <c r="BC205" s="2"/>
       <c r="BD205" s="2"/>
       <c r="BE205" s="2"/>
-    </row>
-    <row r="206" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF205" s="2"/>
+      <c r="BG205" s="2"/>
+      <c r="BH205" s="2"/>
+      <c r="BI205" s="2"/>
+    </row>
+    <row r="206" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -12619,8 +13738,12 @@
       <c r="BC206" s="2"/>
       <c r="BD206" s="2"/>
       <c r="BE206" s="2"/>
-    </row>
-    <row r="207" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF206" s="2"/>
+      <c r="BG206" s="2"/>
+      <c r="BH206" s="2"/>
+      <c r="BI206" s="2"/>
+    </row>
+    <row r="207" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -12676,8 +13799,12 @@
       <c r="BC207" s="2"/>
       <c r="BD207" s="2"/>
       <c r="BE207" s="2"/>
-    </row>
-    <row r="208" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF207" s="2"/>
+      <c r="BG207" s="2"/>
+      <c r="BH207" s="2"/>
+      <c r="BI207" s="2"/>
+    </row>
+    <row r="208" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -12733,8 +13860,12 @@
       <c r="BC208" s="2"/>
       <c r="BD208" s="2"/>
       <c r="BE208" s="2"/>
-    </row>
-    <row r="209" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF208" s="2"/>
+      <c r="BG208" s="2"/>
+      <c r="BH208" s="2"/>
+      <c r="BI208" s="2"/>
+    </row>
+    <row r="209" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -12790,8 +13921,12 @@
       <c r="BC209" s="2"/>
       <c r="BD209" s="2"/>
       <c r="BE209" s="2"/>
-    </row>
-    <row r="210" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF209" s="2"/>
+      <c r="BG209" s="2"/>
+      <c r="BH209" s="2"/>
+      <c r="BI209" s="2"/>
+    </row>
+    <row r="210" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -12847,8 +13982,12 @@
       <c r="BC210" s="2"/>
       <c r="BD210" s="2"/>
       <c r="BE210" s="2"/>
-    </row>
-    <row r="211" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF210" s="2"/>
+      <c r="BG210" s="2"/>
+      <c r="BH210" s="2"/>
+      <c r="BI210" s="2"/>
+    </row>
+    <row r="211" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -12904,8 +14043,12 @@
       <c r="BC211" s="2"/>
       <c r="BD211" s="2"/>
       <c r="BE211" s="2"/>
-    </row>
-    <row r="212" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF211" s="2"/>
+      <c r="BG211" s="2"/>
+      <c r="BH211" s="2"/>
+      <c r="BI211" s="2"/>
+    </row>
+    <row r="212" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -12961,8 +14104,12 @@
       <c r="BC212" s="2"/>
       <c r="BD212" s="2"/>
       <c r="BE212" s="2"/>
-    </row>
-    <row r="213" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF212" s="2"/>
+      <c r="BG212" s="2"/>
+      <c r="BH212" s="2"/>
+      <c r="BI212" s="2"/>
+    </row>
+    <row r="213" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -13018,8 +14165,12 @@
       <c r="BC213" s="2"/>
       <c r="BD213" s="2"/>
       <c r="BE213" s="2"/>
-    </row>
-    <row r="214" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF213" s="2"/>
+      <c r="BG213" s="2"/>
+      <c r="BH213" s="2"/>
+      <c r="BI213" s="2"/>
+    </row>
+    <row r="214" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -13075,8 +14226,12 @@
       <c r="BC214" s="2"/>
       <c r="BD214" s="2"/>
       <c r="BE214" s="2"/>
-    </row>
-    <row r="215" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF214" s="2"/>
+      <c r="BG214" s="2"/>
+      <c r="BH214" s="2"/>
+      <c r="BI214" s="2"/>
+    </row>
+    <row r="215" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -13132,8 +14287,12 @@
       <c r="BC215" s="2"/>
       <c r="BD215" s="2"/>
       <c r="BE215" s="2"/>
-    </row>
-    <row r="216" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF215" s="2"/>
+      <c r="BG215" s="2"/>
+      <c r="BH215" s="2"/>
+      <c r="BI215" s="2"/>
+    </row>
+    <row r="216" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -13189,8 +14348,12 @@
       <c r="BC216" s="2"/>
       <c r="BD216" s="2"/>
       <c r="BE216" s="2"/>
-    </row>
-    <row r="217" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF216" s="2"/>
+      <c r="BG216" s="2"/>
+      <c r="BH216" s="2"/>
+      <c r="BI216" s="2"/>
+    </row>
+    <row r="217" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -13246,8 +14409,12 @@
       <c r="BC217" s="2"/>
       <c r="BD217" s="2"/>
       <c r="BE217" s="2"/>
-    </row>
-    <row r="218" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF217" s="2"/>
+      <c r="BG217" s="2"/>
+      <c r="BH217" s="2"/>
+      <c r="BI217" s="2"/>
+    </row>
+    <row r="218" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -13303,8 +14470,12 @@
       <c r="BC218" s="2"/>
       <c r="BD218" s="2"/>
       <c r="BE218" s="2"/>
-    </row>
-    <row r="219" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF218" s="2"/>
+      <c r="BG218" s="2"/>
+      <c r="BH218" s="2"/>
+      <c r="BI218" s="2"/>
+    </row>
+    <row r="219" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -13360,8 +14531,12 @@
       <c r="BC219" s="2"/>
       <c r="BD219" s="2"/>
       <c r="BE219" s="2"/>
-    </row>
-    <row r="220" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF219" s="2"/>
+      <c r="BG219" s="2"/>
+      <c r="BH219" s="2"/>
+      <c r="BI219" s="2"/>
+    </row>
+    <row r="220" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -13417,8 +14592,12 @@
       <c r="BC220" s="2"/>
       <c r="BD220" s="2"/>
       <c r="BE220" s="2"/>
-    </row>
-    <row r="221" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF220" s="2"/>
+      <c r="BG220" s="2"/>
+      <c r="BH220" s="2"/>
+      <c r="BI220" s="2"/>
+    </row>
+    <row r="221" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -13474,8 +14653,12 @@
       <c r="BC221" s="2"/>
       <c r="BD221" s="2"/>
       <c r="BE221" s="2"/>
-    </row>
-    <row r="222" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF221" s="2"/>
+      <c r="BG221" s="2"/>
+      <c r="BH221" s="2"/>
+      <c r="BI221" s="2"/>
+    </row>
+    <row r="222" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -13531,8 +14714,12 @@
       <c r="BC222" s="2"/>
       <c r="BD222" s="2"/>
       <c r="BE222" s="2"/>
-    </row>
-    <row r="223" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF222" s="2"/>
+      <c r="BG222" s="2"/>
+      <c r="BH222" s="2"/>
+      <c r="BI222" s="2"/>
+    </row>
+    <row r="223" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -13588,8 +14775,12 @@
       <c r="BC223" s="2"/>
       <c r="BD223" s="2"/>
       <c r="BE223" s="2"/>
-    </row>
-    <row r="224" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF223" s="2"/>
+      <c r="BG223" s="2"/>
+      <c r="BH223" s="2"/>
+      <c r="BI223" s="2"/>
+    </row>
+    <row r="224" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -13645,8 +14836,12 @@
       <c r="BC224" s="2"/>
       <c r="BD224" s="2"/>
       <c r="BE224" s="2"/>
-    </row>
-    <row r="225" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF224" s="2"/>
+      <c r="BG224" s="2"/>
+      <c r="BH224" s="2"/>
+      <c r="BI224" s="2"/>
+    </row>
+    <row r="225" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -13702,8 +14897,12 @@
       <c r="BC225" s="2"/>
       <c r="BD225" s="2"/>
       <c r="BE225" s="2"/>
-    </row>
-    <row r="226" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF225" s="2"/>
+      <c r="BG225" s="2"/>
+      <c r="BH225" s="2"/>
+      <c r="BI225" s="2"/>
+    </row>
+    <row r="226" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -13759,8 +14958,12 @@
       <c r="BC226" s="2"/>
       <c r="BD226" s="2"/>
       <c r="BE226" s="2"/>
-    </row>
-    <row r="227" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF226" s="2"/>
+      <c r="BG226" s="2"/>
+      <c r="BH226" s="2"/>
+      <c r="BI226" s="2"/>
+    </row>
+    <row r="227" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -13816,8 +15019,12 @@
       <c r="BC227" s="2"/>
       <c r="BD227" s="2"/>
       <c r="BE227" s="2"/>
-    </row>
-    <row r="228" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF227" s="2"/>
+      <c r="BG227" s="2"/>
+      <c r="BH227" s="2"/>
+      <c r="BI227" s="2"/>
+    </row>
+    <row r="228" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -13873,8 +15080,12 @@
       <c r="BC228" s="2"/>
       <c r="BD228" s="2"/>
       <c r="BE228" s="2"/>
-    </row>
-    <row r="229" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF228" s="2"/>
+      <c r="BG228" s="2"/>
+      <c r="BH228" s="2"/>
+      <c r="BI228" s="2"/>
+    </row>
+    <row r="229" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -13930,8 +15141,12 @@
       <c r="BC229" s="2"/>
       <c r="BD229" s="2"/>
       <c r="BE229" s="2"/>
-    </row>
-    <row r="230" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF229" s="2"/>
+      <c r="BG229" s="2"/>
+      <c r="BH229" s="2"/>
+      <c r="BI229" s="2"/>
+    </row>
+    <row r="230" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -13987,8 +15202,12 @@
       <c r="BC230" s="2"/>
       <c r="BD230" s="2"/>
       <c r="BE230" s="2"/>
-    </row>
-    <row r="231" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF230" s="2"/>
+      <c r="BG230" s="2"/>
+      <c r="BH230" s="2"/>
+      <c r="BI230" s="2"/>
+    </row>
+    <row r="231" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -14044,8 +15263,12 @@
       <c r="BC231" s="2"/>
       <c r="BD231" s="2"/>
       <c r="BE231" s="2"/>
-    </row>
-    <row r="232" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF231" s="2"/>
+      <c r="BG231" s="2"/>
+      <c r="BH231" s="2"/>
+      <c r="BI231" s="2"/>
+    </row>
+    <row r="232" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -14101,8 +15324,12 @@
       <c r="BC232" s="2"/>
       <c r="BD232" s="2"/>
       <c r="BE232" s="2"/>
-    </row>
-    <row r="233" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF232" s="2"/>
+      <c r="BG232" s="2"/>
+      <c r="BH232" s="2"/>
+      <c r="BI232" s="2"/>
+    </row>
+    <row r="233" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -14158,8 +15385,12 @@
       <c r="BC233" s="2"/>
       <c r="BD233" s="2"/>
       <c r="BE233" s="2"/>
-    </row>
-    <row r="234" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF233" s="2"/>
+      <c r="BG233" s="2"/>
+      <c r="BH233" s="2"/>
+      <c r="BI233" s="2"/>
+    </row>
+    <row r="234" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -14215,8 +15446,12 @@
       <c r="BC234" s="2"/>
       <c r="BD234" s="2"/>
       <c r="BE234" s="2"/>
-    </row>
-    <row r="235" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF234" s="2"/>
+      <c r="BG234" s="2"/>
+      <c r="BH234" s="2"/>
+      <c r="BI234" s="2"/>
+    </row>
+    <row r="235" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -14272,8 +15507,12 @@
       <c r="BC235" s="2"/>
       <c r="BD235" s="2"/>
       <c r="BE235" s="2"/>
-    </row>
-    <row r="236" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF235" s="2"/>
+      <c r="BG235" s="2"/>
+      <c r="BH235" s="2"/>
+      <c r="BI235" s="2"/>
+    </row>
+    <row r="236" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -14329,8 +15568,12 @@
       <c r="BC236" s="2"/>
       <c r="BD236" s="2"/>
       <c r="BE236" s="2"/>
-    </row>
-    <row r="237" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF236" s="2"/>
+      <c r="BG236" s="2"/>
+      <c r="BH236" s="2"/>
+      <c r="BI236" s="2"/>
+    </row>
+    <row r="237" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -14386,8 +15629,12 @@
       <c r="BC237" s="2"/>
       <c r="BD237" s="2"/>
       <c r="BE237" s="2"/>
-    </row>
-    <row r="238" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF237" s="2"/>
+      <c r="BG237" s="2"/>
+      <c r="BH237" s="2"/>
+      <c r="BI237" s="2"/>
+    </row>
+    <row r="238" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -14443,8 +15690,12 @@
       <c r="BC238" s="2"/>
       <c r="BD238" s="2"/>
       <c r="BE238" s="2"/>
-    </row>
-    <row r="239" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF238" s="2"/>
+      <c r="BG238" s="2"/>
+      <c r="BH238" s="2"/>
+      <c r="BI238" s="2"/>
+    </row>
+    <row r="239" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
@@ -14500,8 +15751,12 @@
       <c r="BC239" s="2"/>
       <c r="BD239" s="2"/>
       <c r="BE239" s="2"/>
-    </row>
-    <row r="240" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF239" s="2"/>
+      <c r="BG239" s="2"/>
+      <c r="BH239" s="2"/>
+      <c r="BI239" s="2"/>
+    </row>
+    <row r="240" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -14557,8 +15812,12 @@
       <c r="BC240" s="2"/>
       <c r="BD240" s="2"/>
       <c r="BE240" s="2"/>
-    </row>
-    <row r="241" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF240" s="2"/>
+      <c r="BG240" s="2"/>
+      <c r="BH240" s="2"/>
+      <c r="BI240" s="2"/>
+    </row>
+    <row r="241" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -14614,8 +15873,12 @@
       <c r="BC241" s="2"/>
       <c r="BD241" s="2"/>
       <c r="BE241" s="2"/>
-    </row>
-    <row r="242" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF241" s="2"/>
+      <c r="BG241" s="2"/>
+      <c r="BH241" s="2"/>
+      <c r="BI241" s="2"/>
+    </row>
+    <row r="242" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -14671,8 +15934,12 @@
       <c r="BC242" s="2"/>
       <c r="BD242" s="2"/>
       <c r="BE242" s="2"/>
-    </row>
-    <row r="243" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF242" s="2"/>
+      <c r="BG242" s="2"/>
+      <c r="BH242" s="2"/>
+      <c r="BI242" s="2"/>
+    </row>
+    <row r="243" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -14728,8 +15995,12 @@
       <c r="BC243" s="2"/>
       <c r="BD243" s="2"/>
       <c r="BE243" s="2"/>
-    </row>
-    <row r="244" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF243" s="2"/>
+      <c r="BG243" s="2"/>
+      <c r="BH243" s="2"/>
+      <c r="BI243" s="2"/>
+    </row>
+    <row r="244" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -14785,8 +16056,12 @@
       <c r="BC244" s="2"/>
       <c r="BD244" s="2"/>
       <c r="BE244" s="2"/>
-    </row>
-    <row r="245" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF244" s="2"/>
+      <c r="BG244" s="2"/>
+      <c r="BH244" s="2"/>
+      <c r="BI244" s="2"/>
+    </row>
+    <row r="245" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -14842,8 +16117,12 @@
       <c r="BC245" s="2"/>
       <c r="BD245" s="2"/>
       <c r="BE245" s="2"/>
-    </row>
-    <row r="246" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF245" s="2"/>
+      <c r="BG245" s="2"/>
+      <c r="BH245" s="2"/>
+      <c r="BI245" s="2"/>
+    </row>
+    <row r="246" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -14899,8 +16178,12 @@
       <c r="BC246" s="2"/>
       <c r="BD246" s="2"/>
       <c r="BE246" s="2"/>
-    </row>
-    <row r="247" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF246" s="2"/>
+      <c r="BG246" s="2"/>
+      <c r="BH246" s="2"/>
+      <c r="BI246" s="2"/>
+    </row>
+    <row r="247" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -14956,8 +16239,12 @@
       <c r="BC247" s="2"/>
       <c r="BD247" s="2"/>
       <c r="BE247" s="2"/>
-    </row>
-    <row r="248" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF247" s="2"/>
+      <c r="BG247" s="2"/>
+      <c r="BH247" s="2"/>
+      <c r="BI247" s="2"/>
+    </row>
+    <row r="248" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -15013,8 +16300,12 @@
       <c r="BC248" s="2"/>
       <c r="BD248" s="2"/>
       <c r="BE248" s="2"/>
-    </row>
-    <row r="249" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF248" s="2"/>
+      <c r="BG248" s="2"/>
+      <c r="BH248" s="2"/>
+      <c r="BI248" s="2"/>
+    </row>
+    <row r="249" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -15070,8 +16361,12 @@
       <c r="BC249" s="2"/>
       <c r="BD249" s="2"/>
       <c r="BE249" s="2"/>
-    </row>
-    <row r="250" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF249" s="2"/>
+      <c r="BG249" s="2"/>
+      <c r="BH249" s="2"/>
+      <c r="BI249" s="2"/>
+    </row>
+    <row r="250" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -15127,8 +16422,12 @@
       <c r="BC250" s="2"/>
       <c r="BD250" s="2"/>
       <c r="BE250" s="2"/>
-    </row>
-    <row r="251" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF250" s="2"/>
+      <c r="BG250" s="2"/>
+      <c r="BH250" s="2"/>
+      <c r="BI250" s="2"/>
+    </row>
+    <row r="251" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -15184,8 +16483,12 @@
       <c r="BC251" s="2"/>
       <c r="BD251" s="2"/>
       <c r="BE251" s="2"/>
-    </row>
-    <row r="252" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF251" s="2"/>
+      <c r="BG251" s="2"/>
+      <c r="BH251" s="2"/>
+      <c r="BI251" s="2"/>
+    </row>
+    <row r="252" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -15241,8 +16544,12 @@
       <c r="BC252" s="2"/>
       <c r="BD252" s="2"/>
       <c r="BE252" s="2"/>
-    </row>
-    <row r="253" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF252" s="2"/>
+      <c r="BG252" s="2"/>
+      <c r="BH252" s="2"/>
+      <c r="BI252" s="2"/>
+    </row>
+    <row r="253" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -15298,8 +16605,12 @@
       <c r="BC253" s="2"/>
       <c r="BD253" s="2"/>
       <c r="BE253" s="2"/>
-    </row>
-    <row r="254" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF253" s="2"/>
+      <c r="BG253" s="2"/>
+      <c r="BH253" s="2"/>
+      <c r="BI253" s="2"/>
+    </row>
+    <row r="254" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -15355,8 +16666,12 @@
       <c r="BC254" s="2"/>
       <c r="BD254" s="2"/>
       <c r="BE254" s="2"/>
-    </row>
-    <row r="255" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF254" s="2"/>
+      <c r="BG254" s="2"/>
+      <c r="BH254" s="2"/>
+      <c r="BI254" s="2"/>
+    </row>
+    <row r="255" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -15412,8 +16727,12 @@
       <c r="BC255" s="2"/>
       <c r="BD255" s="2"/>
       <c r="BE255" s="2"/>
-    </row>
-    <row r="256" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF255" s="2"/>
+      <c r="BG255" s="2"/>
+      <c r="BH255" s="2"/>
+      <c r="BI255" s="2"/>
+    </row>
+    <row r="256" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -15469,8 +16788,12 @@
       <c r="BC256" s="2"/>
       <c r="BD256" s="2"/>
       <c r="BE256" s="2"/>
-    </row>
-    <row r="257" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF256" s="2"/>
+      <c r="BG256" s="2"/>
+      <c r="BH256" s="2"/>
+      <c r="BI256" s="2"/>
+    </row>
+    <row r="257" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -15526,8 +16849,12 @@
       <c r="BC257" s="2"/>
       <c r="BD257" s="2"/>
       <c r="BE257" s="2"/>
-    </row>
-    <row r="258" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF257" s="2"/>
+      <c r="BG257" s="2"/>
+      <c r="BH257" s="2"/>
+      <c r="BI257" s="2"/>
+    </row>
+    <row r="258" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -15583,8 +16910,12 @@
       <c r="BC258" s="2"/>
       <c r="BD258" s="2"/>
       <c r="BE258" s="2"/>
-    </row>
-    <row r="259" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF258" s="2"/>
+      <c r="BG258" s="2"/>
+      <c r="BH258" s="2"/>
+      <c r="BI258" s="2"/>
+    </row>
+    <row r="259" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -15640,8 +16971,12 @@
       <c r="BC259" s="2"/>
       <c r="BD259" s="2"/>
       <c r="BE259" s="2"/>
-    </row>
-    <row r="260" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF259" s="2"/>
+      <c r="BG259" s="2"/>
+      <c r="BH259" s="2"/>
+      <c r="BI259" s="2"/>
+    </row>
+    <row r="260" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -15697,8 +17032,12 @@
       <c r="BC260" s="2"/>
       <c r="BD260" s="2"/>
       <c r="BE260" s="2"/>
-    </row>
-    <row r="261" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF260" s="2"/>
+      <c r="BG260" s="2"/>
+      <c r="BH260" s="2"/>
+      <c r="BI260" s="2"/>
+    </row>
+    <row r="261" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -15754,8 +17093,12 @@
       <c r="BC261" s="2"/>
       <c r="BD261" s="2"/>
       <c r="BE261" s="2"/>
-    </row>
-    <row r="262" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF261" s="2"/>
+      <c r="BG261" s="2"/>
+      <c r="BH261" s="2"/>
+      <c r="BI261" s="2"/>
+    </row>
+    <row r="262" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -15811,8 +17154,12 @@
       <c r="BC262" s="2"/>
       <c r="BD262" s="2"/>
       <c r="BE262" s="2"/>
-    </row>
-    <row r="263" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF262" s="2"/>
+      <c r="BG262" s="2"/>
+      <c r="BH262" s="2"/>
+      <c r="BI262" s="2"/>
+    </row>
+    <row r="263" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -15868,8 +17215,12 @@
       <c r="BC263" s="2"/>
       <c r="BD263" s="2"/>
       <c r="BE263" s="2"/>
-    </row>
-    <row r="264" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF263" s="2"/>
+      <c r="BG263" s="2"/>
+      <c r="BH263" s="2"/>
+      <c r="BI263" s="2"/>
+    </row>
+    <row r="264" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -15925,8 +17276,12 @@
       <c r="BC264" s="2"/>
       <c r="BD264" s="2"/>
       <c r="BE264" s="2"/>
-    </row>
-    <row r="265" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF264" s="2"/>
+      <c r="BG264" s="2"/>
+      <c r="BH264" s="2"/>
+      <c r="BI264" s="2"/>
+    </row>
+    <row r="265" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -15982,8 +17337,12 @@
       <c r="BC265" s="2"/>
       <c r="BD265" s="2"/>
       <c r="BE265" s="2"/>
-    </row>
-    <row r="266" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF265" s="2"/>
+      <c r="BG265" s="2"/>
+      <c r="BH265" s="2"/>
+      <c r="BI265" s="2"/>
+    </row>
+    <row r="266" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -16039,8 +17398,12 @@
       <c r="BC266" s="2"/>
       <c r="BD266" s="2"/>
       <c r="BE266" s="2"/>
-    </row>
-    <row r="267" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF266" s="2"/>
+      <c r="BG266" s="2"/>
+      <c r="BH266" s="2"/>
+      <c r="BI266" s="2"/>
+    </row>
+    <row r="267" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
@@ -16096,8 +17459,12 @@
       <c r="BC267" s="2"/>
       <c r="BD267" s="2"/>
       <c r="BE267" s="2"/>
-    </row>
-    <row r="268" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF267" s="2"/>
+      <c r="BG267" s="2"/>
+      <c r="BH267" s="2"/>
+      <c r="BI267" s="2"/>
+    </row>
+    <row r="268" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -16153,8 +17520,12 @@
       <c r="BC268" s="2"/>
       <c r="BD268" s="2"/>
       <c r="BE268" s="2"/>
-    </row>
-    <row r="269" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF268" s="2"/>
+      <c r="BG268" s="2"/>
+      <c r="BH268" s="2"/>
+      <c r="BI268" s="2"/>
+    </row>
+    <row r="269" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -16210,8 +17581,12 @@
       <c r="BC269" s="2"/>
       <c r="BD269" s="2"/>
       <c r="BE269" s="2"/>
-    </row>
-    <row r="270" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF269" s="2"/>
+      <c r="BG269" s="2"/>
+      <c r="BH269" s="2"/>
+      <c r="BI269" s="2"/>
+    </row>
+    <row r="270" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -16267,8 +17642,12 @@
       <c r="BC270" s="2"/>
       <c r="BD270" s="2"/>
       <c r="BE270" s="2"/>
-    </row>
-    <row r="271" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF270" s="2"/>
+      <c r="BG270" s="2"/>
+      <c r="BH270" s="2"/>
+      <c r="BI270" s="2"/>
+    </row>
+    <row r="271" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -16324,8 +17703,12 @@
       <c r="BC271" s="2"/>
       <c r="BD271" s="2"/>
       <c r="BE271" s="2"/>
-    </row>
-    <row r="272" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF271" s="2"/>
+      <c r="BG271" s="2"/>
+      <c r="BH271" s="2"/>
+      <c r="BI271" s="2"/>
+    </row>
+    <row r="272" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -16381,8 +17764,12 @@
       <c r="BC272" s="2"/>
       <c r="BD272" s="2"/>
       <c r="BE272" s="2"/>
-    </row>
-    <row r="273" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF272" s="2"/>
+      <c r="BG272" s="2"/>
+      <c r="BH272" s="2"/>
+      <c r="BI272" s="2"/>
+    </row>
+    <row r="273" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -16438,8 +17825,12 @@
       <c r="BC273" s="2"/>
       <c r="BD273" s="2"/>
       <c r="BE273" s="2"/>
-    </row>
-    <row r="274" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF273" s="2"/>
+      <c r="BG273" s="2"/>
+      <c r="BH273" s="2"/>
+      <c r="BI273" s="2"/>
+    </row>
+    <row r="274" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -16495,8 +17886,12 @@
       <c r="BC274" s="2"/>
       <c r="BD274" s="2"/>
       <c r="BE274" s="2"/>
-    </row>
-    <row r="275" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF274" s="2"/>
+      <c r="BG274" s="2"/>
+      <c r="BH274" s="2"/>
+      <c r="BI274" s="2"/>
+    </row>
+    <row r="275" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -16552,8 +17947,12 @@
       <c r="BC275" s="2"/>
       <c r="BD275" s="2"/>
       <c r="BE275" s="2"/>
-    </row>
-    <row r="276" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF275" s="2"/>
+      <c r="BG275" s="2"/>
+      <c r="BH275" s="2"/>
+      <c r="BI275" s="2"/>
+    </row>
+    <row r="276" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -16609,8 +18008,12 @@
       <c r="BC276" s="2"/>
       <c r="BD276" s="2"/>
       <c r="BE276" s="2"/>
-    </row>
-    <row r="277" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF276" s="2"/>
+      <c r="BG276" s="2"/>
+      <c r="BH276" s="2"/>
+      <c r="BI276" s="2"/>
+    </row>
+    <row r="277" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -16666,8 +18069,12 @@
       <c r="BC277" s="2"/>
       <c r="BD277" s="2"/>
       <c r="BE277" s="2"/>
-    </row>
-    <row r="278" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF277" s="2"/>
+      <c r="BG277" s="2"/>
+      <c r="BH277" s="2"/>
+      <c r="BI277" s="2"/>
+    </row>
+    <row r="278" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -16723,8 +18130,12 @@
       <c r="BC278" s="2"/>
       <c r="BD278" s="2"/>
       <c r="BE278" s="2"/>
-    </row>
-    <row r="279" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF278" s="2"/>
+      <c r="BG278" s="2"/>
+      <c r="BH278" s="2"/>
+      <c r="BI278" s="2"/>
+    </row>
+    <row r="279" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -16780,8 +18191,12 @@
       <c r="BC279" s="2"/>
       <c r="BD279" s="2"/>
       <c r="BE279" s="2"/>
-    </row>
-    <row r="280" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF279" s="2"/>
+      <c r="BG279" s="2"/>
+      <c r="BH279" s="2"/>
+      <c r="BI279" s="2"/>
+    </row>
+    <row r="280" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -16837,8 +18252,12 @@
       <c r="BC280" s="2"/>
       <c r="BD280" s="2"/>
       <c r="BE280" s="2"/>
-    </row>
-    <row r="281" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF280" s="2"/>
+      <c r="BG280" s="2"/>
+      <c r="BH280" s="2"/>
+      <c r="BI280" s="2"/>
+    </row>
+    <row r="281" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
@@ -16894,8 +18313,12 @@
       <c r="BC281" s="2"/>
       <c r="BD281" s="2"/>
       <c r="BE281" s="2"/>
-    </row>
-    <row r="282" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF281" s="2"/>
+      <c r="BG281" s="2"/>
+      <c r="BH281" s="2"/>
+      <c r="BI281" s="2"/>
+    </row>
+    <row r="282" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -16951,8 +18374,12 @@
       <c r="BC282" s="2"/>
       <c r="BD282" s="2"/>
       <c r="BE282" s="2"/>
-    </row>
-    <row r="283" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF282" s="2"/>
+      <c r="BG282" s="2"/>
+      <c r="BH282" s="2"/>
+      <c r="BI282" s="2"/>
+    </row>
+    <row r="283" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
@@ -17008,8 +18435,12 @@
       <c r="BC283" s="2"/>
       <c r="BD283" s="2"/>
       <c r="BE283" s="2"/>
-    </row>
-    <row r="284" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF283" s="2"/>
+      <c r="BG283" s="2"/>
+      <c r="BH283" s="2"/>
+      <c r="BI283" s="2"/>
+    </row>
+    <row r="284" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
@@ -17065,8 +18496,12 @@
       <c r="BC284" s="2"/>
       <c r="BD284" s="2"/>
       <c r="BE284" s="2"/>
-    </row>
-    <row r="285" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF284" s="2"/>
+      <c r="BG284" s="2"/>
+      <c r="BH284" s="2"/>
+      <c r="BI284" s="2"/>
+    </row>
+    <row r="285" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -17122,8 +18557,12 @@
       <c r="BC285" s="2"/>
       <c r="BD285" s="2"/>
       <c r="BE285" s="2"/>
-    </row>
-    <row r="286" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF285" s="2"/>
+      <c r="BG285" s="2"/>
+      <c r="BH285" s="2"/>
+      <c r="BI285" s="2"/>
+    </row>
+    <row r="286" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -17179,8 +18618,12 @@
       <c r="BC286" s="2"/>
       <c r="BD286" s="2"/>
       <c r="BE286" s="2"/>
-    </row>
-    <row r="287" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF286" s="2"/>
+      <c r="BG286" s="2"/>
+      <c r="BH286" s="2"/>
+      <c r="BI286" s="2"/>
+    </row>
+    <row r="287" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -17236,8 +18679,12 @@
       <c r="BC287" s="2"/>
       <c r="BD287" s="2"/>
       <c r="BE287" s="2"/>
-    </row>
-    <row r="288" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF287" s="2"/>
+      <c r="BG287" s="2"/>
+      <c r="BH287" s="2"/>
+      <c r="BI287" s="2"/>
+    </row>
+    <row r="288" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
@@ -17293,8 +18740,12 @@
       <c r="BC288" s="2"/>
       <c r="BD288" s="2"/>
       <c r="BE288" s="2"/>
-    </row>
-    <row r="289" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF288" s="2"/>
+      <c r="BG288" s="2"/>
+      <c r="BH288" s="2"/>
+      <c r="BI288" s="2"/>
+    </row>
+    <row r="289" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -17350,8 +18801,12 @@
       <c r="BC289" s="2"/>
       <c r="BD289" s="2"/>
       <c r="BE289" s="2"/>
-    </row>
-    <row r="290" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF289" s="2"/>
+      <c r="BG289" s="2"/>
+      <c r="BH289" s="2"/>
+      <c r="BI289" s="2"/>
+    </row>
+    <row r="290" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -17407,8 +18862,12 @@
       <c r="BC290" s="2"/>
       <c r="BD290" s="2"/>
       <c r="BE290" s="2"/>
-    </row>
-    <row r="291" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF290" s="2"/>
+      <c r="BG290" s="2"/>
+      <c r="BH290" s="2"/>
+      <c r="BI290" s="2"/>
+    </row>
+    <row r="291" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -17464,8 +18923,12 @@
       <c r="BC291" s="2"/>
       <c r="BD291" s="2"/>
       <c r="BE291" s="2"/>
-    </row>
-    <row r="292" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF291" s="2"/>
+      <c r="BG291" s="2"/>
+      <c r="BH291" s="2"/>
+      <c r="BI291" s="2"/>
+    </row>
+    <row r="292" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -17521,8 +18984,12 @@
       <c r="BC292" s="2"/>
       <c r="BD292" s="2"/>
       <c r="BE292" s="2"/>
-    </row>
-    <row r="293" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF292" s="2"/>
+      <c r="BG292" s="2"/>
+      <c r="BH292" s="2"/>
+      <c r="BI292" s="2"/>
+    </row>
+    <row r="293" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
@@ -17578,8 +19045,12 @@
       <c r="BC293" s="2"/>
       <c r="BD293" s="2"/>
       <c r="BE293" s="2"/>
-    </row>
-    <row r="294" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF293" s="2"/>
+      <c r="BG293" s="2"/>
+      <c r="BH293" s="2"/>
+      <c r="BI293" s="2"/>
+    </row>
+    <row r="294" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
@@ -17635,8 +19106,12 @@
       <c r="BC294" s="2"/>
       <c r="BD294" s="2"/>
       <c r="BE294" s="2"/>
-    </row>
-    <row r="295" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF294" s="2"/>
+      <c r="BG294" s="2"/>
+      <c r="BH294" s="2"/>
+      <c r="BI294" s="2"/>
+    </row>
+    <row r="295" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -17692,8 +19167,12 @@
       <c r="BC295" s="2"/>
       <c r="BD295" s="2"/>
       <c r="BE295" s="2"/>
-    </row>
-    <row r="296" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF295" s="2"/>
+      <c r="BG295" s="2"/>
+      <c r="BH295" s="2"/>
+      <c r="BI295" s="2"/>
+    </row>
+    <row r="296" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -17749,8 +19228,12 @@
       <c r="BC296" s="2"/>
       <c r="BD296" s="2"/>
       <c r="BE296" s="2"/>
-    </row>
-    <row r="297" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF296" s="2"/>
+      <c r="BG296" s="2"/>
+      <c r="BH296" s="2"/>
+      <c r="BI296" s="2"/>
+    </row>
+    <row r="297" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
@@ -17806,8 +19289,12 @@
       <c r="BC297" s="2"/>
       <c r="BD297" s="2"/>
       <c r="BE297" s="2"/>
-    </row>
-    <row r="298" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF297" s="2"/>
+      <c r="BG297" s="2"/>
+      <c r="BH297" s="2"/>
+      <c r="BI297" s="2"/>
+    </row>
+    <row r="298" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -17863,8 +19350,12 @@
       <c r="BC298" s="2"/>
       <c r="BD298" s="2"/>
       <c r="BE298" s="2"/>
-    </row>
-    <row r="299" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF298" s="2"/>
+      <c r="BG298" s="2"/>
+      <c r="BH298" s="2"/>
+      <c r="BI298" s="2"/>
+    </row>
+    <row r="299" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -17920,8 +19411,12 @@
       <c r="BC299" s="2"/>
       <c r="BD299" s="2"/>
       <c r="BE299" s="2"/>
-    </row>
-    <row r="300" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF299" s="2"/>
+      <c r="BG299" s="2"/>
+      <c r="BH299" s="2"/>
+      <c r="BI299" s="2"/>
+    </row>
+    <row r="300" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
@@ -17977,8 +19472,12 @@
       <c r="BC300" s="2"/>
       <c r="BD300" s="2"/>
       <c r="BE300" s="2"/>
-    </row>
-    <row r="301" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF300" s="2"/>
+      <c r="BG300" s="2"/>
+      <c r="BH300" s="2"/>
+      <c r="BI300" s="2"/>
+    </row>
+    <row r="301" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -18034,8 +19533,12 @@
       <c r="BC301" s="2"/>
       <c r="BD301" s="2"/>
       <c r="BE301" s="2"/>
-    </row>
-    <row r="302" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF301" s="2"/>
+      <c r="BG301" s="2"/>
+      <c r="BH301" s="2"/>
+      <c r="BI301" s="2"/>
+    </row>
+    <row r="302" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -18091,8 +19594,12 @@
       <c r="BC302" s="2"/>
       <c r="BD302" s="2"/>
       <c r="BE302" s="2"/>
-    </row>
-    <row r="303" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF302" s="2"/>
+      <c r="BG302" s="2"/>
+      <c r="BH302" s="2"/>
+      <c r="BI302" s="2"/>
+    </row>
+    <row r="303" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -18148,8 +19655,12 @@
       <c r="BC303" s="2"/>
       <c r="BD303" s="2"/>
       <c r="BE303" s="2"/>
-    </row>
-    <row r="304" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF303" s="2"/>
+      <c r="BG303" s="2"/>
+      <c r="BH303" s="2"/>
+      <c r="BI303" s="2"/>
+    </row>
+    <row r="304" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -18205,8 +19716,12 @@
       <c r="BC304" s="2"/>
       <c r="BD304" s="2"/>
       <c r="BE304" s="2"/>
-    </row>
-    <row r="305" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF304" s="2"/>
+      <c r="BG304" s="2"/>
+      <c r="BH304" s="2"/>
+      <c r="BI304" s="2"/>
+    </row>
+    <row r="305" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -18262,8 +19777,12 @@
       <c r="BC305" s="2"/>
       <c r="BD305" s="2"/>
       <c r="BE305" s="2"/>
-    </row>
-    <row r="306" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF305" s="2"/>
+      <c r="BG305" s="2"/>
+      <c r="BH305" s="2"/>
+      <c r="BI305" s="2"/>
+    </row>
+    <row r="306" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -18319,8 +19838,12 @@
       <c r="BC306" s="2"/>
       <c r="BD306" s="2"/>
       <c r="BE306" s="2"/>
-    </row>
-    <row r="307" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF306" s="2"/>
+      <c r="BG306" s="2"/>
+      <c r="BH306" s="2"/>
+      <c r="BI306" s="2"/>
+    </row>
+    <row r="307" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -18376,8 +19899,12 @@
       <c r="BC307" s="2"/>
       <c r="BD307" s="2"/>
       <c r="BE307" s="2"/>
-    </row>
-    <row r="308" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF307" s="2"/>
+      <c r="BG307" s="2"/>
+      <c r="BH307" s="2"/>
+      <c r="BI307" s="2"/>
+    </row>
+    <row r="308" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -18433,8 +19960,12 @@
       <c r="BC308" s="2"/>
       <c r="BD308" s="2"/>
       <c r="BE308" s="2"/>
-    </row>
-    <row r="309" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF308" s="2"/>
+      <c r="BG308" s="2"/>
+      <c r="BH308" s="2"/>
+      <c r="BI308" s="2"/>
+    </row>
+    <row r="309" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -18490,8 +20021,12 @@
       <c r="BC309" s="2"/>
       <c r="BD309" s="2"/>
       <c r="BE309" s="2"/>
-    </row>
-    <row r="310" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF309" s="2"/>
+      <c r="BG309" s="2"/>
+      <c r="BH309" s="2"/>
+      <c r="BI309" s="2"/>
+    </row>
+    <row r="310" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -18547,8 +20082,12 @@
       <c r="BC310" s="2"/>
       <c r="BD310" s="2"/>
       <c r="BE310" s="2"/>
-    </row>
-    <row r="311" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF310" s="2"/>
+      <c r="BG310" s="2"/>
+      <c r="BH310" s="2"/>
+      <c r="BI310" s="2"/>
+    </row>
+    <row r="311" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -18604,8 +20143,12 @@
       <c r="BC311" s="2"/>
       <c r="BD311" s="2"/>
       <c r="BE311" s="2"/>
-    </row>
-    <row r="312" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF311" s="2"/>
+      <c r="BG311" s="2"/>
+      <c r="BH311" s="2"/>
+      <c r="BI311" s="2"/>
+    </row>
+    <row r="312" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -18661,8 +20204,12 @@
       <c r="BC312" s="2"/>
       <c r="BD312" s="2"/>
       <c r="BE312" s="2"/>
-    </row>
-    <row r="313" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF312" s="2"/>
+      <c r="BG312" s="2"/>
+      <c r="BH312" s="2"/>
+      <c r="BI312" s="2"/>
+    </row>
+    <row r="313" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -18718,8 +20265,12 @@
       <c r="BC313" s="2"/>
       <c r="BD313" s="2"/>
       <c r="BE313" s="2"/>
-    </row>
-    <row r="314" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF313" s="2"/>
+      <c r="BG313" s="2"/>
+      <c r="BH313" s="2"/>
+      <c r="BI313" s="2"/>
+    </row>
+    <row r="314" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -18775,8 +20326,12 @@
       <c r="BC314" s="2"/>
       <c r="BD314" s="2"/>
       <c r="BE314" s="2"/>
-    </row>
-    <row r="315" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF314" s="2"/>
+      <c r="BG314" s="2"/>
+      <c r="BH314" s="2"/>
+      <c r="BI314" s="2"/>
+    </row>
+    <row r="315" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -18832,8 +20387,12 @@
       <c r="BC315" s="2"/>
       <c r="BD315" s="2"/>
       <c r="BE315" s="2"/>
-    </row>
-    <row r="316" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF315" s="2"/>
+      <c r="BG315" s="2"/>
+      <c r="BH315" s="2"/>
+      <c r="BI315" s="2"/>
+    </row>
+    <row r="316" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -18889,8 +20448,12 @@
       <c r="BC316" s="2"/>
       <c r="BD316" s="2"/>
       <c r="BE316" s="2"/>
-    </row>
-    <row r="317" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF316" s="2"/>
+      <c r="BG316" s="2"/>
+      <c r="BH316" s="2"/>
+      <c r="BI316" s="2"/>
+    </row>
+    <row r="317" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -18946,8 +20509,12 @@
       <c r="BC317" s="2"/>
       <c r="BD317" s="2"/>
       <c r="BE317" s="2"/>
-    </row>
-    <row r="318" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF317" s="2"/>
+      <c r="BG317" s="2"/>
+      <c r="BH317" s="2"/>
+      <c r="BI317" s="2"/>
+    </row>
+    <row r="318" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -19003,8 +20570,12 @@
       <c r="BC318" s="2"/>
       <c r="BD318" s="2"/>
       <c r="BE318" s="2"/>
-    </row>
-    <row r="319" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF318" s="2"/>
+      <c r="BG318" s="2"/>
+      <c r="BH318" s="2"/>
+      <c r="BI318" s="2"/>
+    </row>
+    <row r="319" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -19060,8 +20631,12 @@
       <c r="BC319" s="2"/>
       <c r="BD319" s="2"/>
       <c r="BE319" s="2"/>
-    </row>
-    <row r="320" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF319" s="2"/>
+      <c r="BG319" s="2"/>
+      <c r="BH319" s="2"/>
+      <c r="BI319" s="2"/>
+    </row>
+    <row r="320" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -19117,8 +20692,12 @@
       <c r="BC320" s="2"/>
       <c r="BD320" s="2"/>
       <c r="BE320" s="2"/>
-    </row>
-    <row r="321" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF320" s="2"/>
+      <c r="BG320" s="2"/>
+      <c r="BH320" s="2"/>
+      <c r="BI320" s="2"/>
+    </row>
+    <row r="321" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -19174,8 +20753,12 @@
       <c r="BC321" s="2"/>
       <c r="BD321" s="2"/>
       <c r="BE321" s="2"/>
-    </row>
-    <row r="322" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF321" s="2"/>
+      <c r="BG321" s="2"/>
+      <c r="BH321" s="2"/>
+      <c r="BI321" s="2"/>
+    </row>
+    <row r="322" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -19231,8 +20814,12 @@
       <c r="BC322" s="2"/>
       <c r="BD322" s="2"/>
       <c r="BE322" s="2"/>
-    </row>
-    <row r="323" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF322" s="2"/>
+      <c r="BG322" s="2"/>
+      <c r="BH322" s="2"/>
+      <c r="BI322" s="2"/>
+    </row>
+    <row r="323" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -19288,8 +20875,12 @@
       <c r="BC323" s="2"/>
       <c r="BD323" s="2"/>
       <c r="BE323" s="2"/>
-    </row>
-    <row r="324" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF323" s="2"/>
+      <c r="BG323" s="2"/>
+      <c r="BH323" s="2"/>
+      <c r="BI323" s="2"/>
+    </row>
+    <row r="324" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -19345,8 +20936,12 @@
       <c r="BC324" s="2"/>
       <c r="BD324" s="2"/>
       <c r="BE324" s="2"/>
-    </row>
-    <row r="325" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF324" s="2"/>
+      <c r="BG324" s="2"/>
+      <c r="BH324" s="2"/>
+      <c r="BI324" s="2"/>
+    </row>
+    <row r="325" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -19402,8 +20997,12 @@
       <c r="BC325" s="2"/>
       <c r="BD325" s="2"/>
       <c r="BE325" s="2"/>
-    </row>
-    <row r="326" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF325" s="2"/>
+      <c r="BG325" s="2"/>
+      <c r="BH325" s="2"/>
+      <c r="BI325" s="2"/>
+    </row>
+    <row r="326" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -19459,8 +21058,12 @@
       <c r="BC326" s="2"/>
       <c r="BD326" s="2"/>
       <c r="BE326" s="2"/>
-    </row>
-    <row r="327" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF326" s="2"/>
+      <c r="BG326" s="2"/>
+      <c r="BH326" s="2"/>
+      <c r="BI326" s="2"/>
+    </row>
+    <row r="327" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -19516,8 +21119,12 @@
       <c r="BC327" s="2"/>
       <c r="BD327" s="2"/>
       <c r="BE327" s="2"/>
-    </row>
-    <row r="328" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF327" s="2"/>
+      <c r="BG327" s="2"/>
+      <c r="BH327" s="2"/>
+      <c r="BI327" s="2"/>
+    </row>
+    <row r="328" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -19573,8 +21180,12 @@
       <c r="BC328" s="2"/>
       <c r="BD328" s="2"/>
       <c r="BE328" s="2"/>
-    </row>
-    <row r="329" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF328" s="2"/>
+      <c r="BG328" s="2"/>
+      <c r="BH328" s="2"/>
+      <c r="BI328" s="2"/>
+    </row>
+    <row r="329" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -19630,8 +21241,12 @@
       <c r="BC329" s="2"/>
       <c r="BD329" s="2"/>
       <c r="BE329" s="2"/>
-    </row>
-    <row r="330" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF329" s="2"/>
+      <c r="BG329" s="2"/>
+      <c r="BH329" s="2"/>
+      <c r="BI329" s="2"/>
+    </row>
+    <row r="330" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -19687,8 +21302,12 @@
       <c r="BC330" s="2"/>
       <c r="BD330" s="2"/>
       <c r="BE330" s="2"/>
-    </row>
-    <row r="331" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF330" s="2"/>
+      <c r="BG330" s="2"/>
+      <c r="BH330" s="2"/>
+      <c r="BI330" s="2"/>
+    </row>
+    <row r="331" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -19744,8 +21363,12 @@
       <c r="BC331" s="2"/>
       <c r="BD331" s="2"/>
       <c r="BE331" s="2"/>
-    </row>
-    <row r="332" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF331" s="2"/>
+      <c r="BG331" s="2"/>
+      <c r="BH331" s="2"/>
+      <c r="BI331" s="2"/>
+    </row>
+    <row r="332" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -19801,8 +21424,12 @@
       <c r="BC332" s="2"/>
       <c r="BD332" s="2"/>
       <c r="BE332" s="2"/>
-    </row>
-    <row r="333" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF332" s="2"/>
+      <c r="BG332" s="2"/>
+      <c r="BH332" s="2"/>
+      <c r="BI332" s="2"/>
+    </row>
+    <row r="333" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -19858,8 +21485,12 @@
       <c r="BC333" s="2"/>
       <c r="BD333" s="2"/>
       <c r="BE333" s="2"/>
-    </row>
-    <row r="334" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF333" s="2"/>
+      <c r="BG333" s="2"/>
+      <c r="BH333" s="2"/>
+      <c r="BI333" s="2"/>
+    </row>
+    <row r="334" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
@@ -19915,8 +21546,12 @@
       <c r="BC334" s="2"/>
       <c r="BD334" s="2"/>
       <c r="BE334" s="2"/>
-    </row>
-    <row r="335" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF334" s="2"/>
+      <c r="BG334" s="2"/>
+      <c r="BH334" s="2"/>
+      <c r="BI334" s="2"/>
+    </row>
+    <row r="335" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -19972,8 +21607,12 @@
       <c r="BC335" s="2"/>
       <c r="BD335" s="2"/>
       <c r="BE335" s="2"/>
-    </row>
-    <row r="336" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF335" s="2"/>
+      <c r="BG335" s="2"/>
+      <c r="BH335" s="2"/>
+      <c r="BI335" s="2"/>
+    </row>
+    <row r="336" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -20029,8 +21668,12 @@
       <c r="BC336" s="2"/>
       <c r="BD336" s="2"/>
       <c r="BE336" s="2"/>
-    </row>
-    <row r="337" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF336" s="2"/>
+      <c r="BG336" s="2"/>
+      <c r="BH336" s="2"/>
+      <c r="BI336" s="2"/>
+    </row>
+    <row r="337" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -20086,8 +21729,12 @@
       <c r="BC337" s="2"/>
       <c r="BD337" s="2"/>
       <c r="BE337" s="2"/>
-    </row>
-    <row r="338" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF337" s="2"/>
+      <c r="BG337" s="2"/>
+      <c r="BH337" s="2"/>
+      <c r="BI337" s="2"/>
+    </row>
+    <row r="338" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -20143,8 +21790,12 @@
       <c r="BC338" s="2"/>
       <c r="BD338" s="2"/>
       <c r="BE338" s="2"/>
-    </row>
-    <row r="339" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF338" s="2"/>
+      <c r="BG338" s="2"/>
+      <c r="BH338" s="2"/>
+      <c r="BI338" s="2"/>
+    </row>
+    <row r="339" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -20200,8 +21851,12 @@
       <c r="BC339" s="2"/>
       <c r="BD339" s="2"/>
       <c r="BE339" s="2"/>
-    </row>
-    <row r="340" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF339" s="2"/>
+      <c r="BG339" s="2"/>
+      <c r="BH339" s="2"/>
+      <c r="BI339" s="2"/>
+    </row>
+    <row r="340" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -20257,8 +21912,12 @@
       <c r="BC340" s="2"/>
       <c r="BD340" s="2"/>
       <c r="BE340" s="2"/>
-    </row>
-    <row r="341" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF340" s="2"/>
+      <c r="BG340" s="2"/>
+      <c r="BH340" s="2"/>
+      <c r="BI340" s="2"/>
+    </row>
+    <row r="341" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -20314,8 +21973,12 @@
       <c r="BC341" s="2"/>
       <c r="BD341" s="2"/>
       <c r="BE341" s="2"/>
-    </row>
-    <row r="342" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF341" s="2"/>
+      <c r="BG341" s="2"/>
+      <c r="BH341" s="2"/>
+      <c r="BI341" s="2"/>
+    </row>
+    <row r="342" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -20371,8 +22034,12 @@
       <c r="BC342" s="2"/>
       <c r="BD342" s="2"/>
       <c r="BE342" s="2"/>
-    </row>
-    <row r="343" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF342" s="2"/>
+      <c r="BG342" s="2"/>
+      <c r="BH342" s="2"/>
+      <c r="BI342" s="2"/>
+    </row>
+    <row r="343" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -20428,8 +22095,12 @@
       <c r="BC343" s="2"/>
       <c r="BD343" s="2"/>
       <c r="BE343" s="2"/>
-    </row>
-    <row r="344" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF343" s="2"/>
+      <c r="BG343" s="2"/>
+      <c r="BH343" s="2"/>
+      <c r="BI343" s="2"/>
+    </row>
+    <row r="344" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -20485,8 +22156,12 @@
       <c r="BC344" s="2"/>
       <c r="BD344" s="2"/>
       <c r="BE344" s="2"/>
-    </row>
-    <row r="345" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF344" s="2"/>
+      <c r="BG344" s="2"/>
+      <c r="BH344" s="2"/>
+      <c r="BI344" s="2"/>
+    </row>
+    <row r="345" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -20542,8 +22217,12 @@
       <c r="BC345" s="2"/>
       <c r="BD345" s="2"/>
       <c r="BE345" s="2"/>
-    </row>
-    <row r="346" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF345" s="2"/>
+      <c r="BG345" s="2"/>
+      <c r="BH345" s="2"/>
+      <c r="BI345" s="2"/>
+    </row>
+    <row r="346" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -20599,8 +22278,12 @@
       <c r="BC346" s="2"/>
       <c r="BD346" s="2"/>
       <c r="BE346" s="2"/>
-    </row>
-    <row r="347" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF346" s="2"/>
+      <c r="BG346" s="2"/>
+      <c r="BH346" s="2"/>
+      <c r="BI346" s="2"/>
+    </row>
+    <row r="347" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -20656,8 +22339,12 @@
       <c r="BC347" s="2"/>
       <c r="BD347" s="2"/>
       <c r="BE347" s="2"/>
-    </row>
-    <row r="348" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF347" s="2"/>
+      <c r="BG347" s="2"/>
+      <c r="BH347" s="2"/>
+      <c r="BI347" s="2"/>
+    </row>
+    <row r="348" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -20713,8 +22400,12 @@
       <c r="BC348" s="2"/>
       <c r="BD348" s="2"/>
       <c r="BE348" s="2"/>
-    </row>
-    <row r="349" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF348" s="2"/>
+      <c r="BG348" s="2"/>
+      <c r="BH348" s="2"/>
+      <c r="BI348" s="2"/>
+    </row>
+    <row r="349" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -20770,8 +22461,12 @@
       <c r="BC349" s="2"/>
       <c r="BD349" s="2"/>
       <c r="BE349" s="2"/>
-    </row>
-    <row r="350" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF349" s="2"/>
+      <c r="BG349" s="2"/>
+      <c r="BH349" s="2"/>
+      <c r="BI349" s="2"/>
+    </row>
+    <row r="350" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -20827,8 +22522,12 @@
       <c r="BC350" s="2"/>
       <c r="BD350" s="2"/>
       <c r="BE350" s="2"/>
-    </row>
-    <row r="351" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF350" s="2"/>
+      <c r="BG350" s="2"/>
+      <c r="BH350" s="2"/>
+      <c r="BI350" s="2"/>
+    </row>
+    <row r="351" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -20884,8 +22583,12 @@
       <c r="BC351" s="2"/>
       <c r="BD351" s="2"/>
       <c r="BE351" s="2"/>
-    </row>
-    <row r="352" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF351" s="2"/>
+      <c r="BG351" s="2"/>
+      <c r="BH351" s="2"/>
+      <c r="BI351" s="2"/>
+    </row>
+    <row r="352" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -20941,8 +22644,12 @@
       <c r="BC352" s="2"/>
       <c r="BD352" s="2"/>
       <c r="BE352" s="2"/>
-    </row>
-    <row r="353" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF352" s="2"/>
+      <c r="BG352" s="2"/>
+      <c r="BH352" s="2"/>
+      <c r="BI352" s="2"/>
+    </row>
+    <row r="353" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -20998,8 +22705,12 @@
       <c r="BC353" s="2"/>
       <c r="BD353" s="2"/>
       <c r="BE353" s="2"/>
-    </row>
-    <row r="354" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF353" s="2"/>
+      <c r="BG353" s="2"/>
+      <c r="BH353" s="2"/>
+      <c r="BI353" s="2"/>
+    </row>
+    <row r="354" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -21055,8 +22766,12 @@
       <c r="BC354" s="2"/>
       <c r="BD354" s="2"/>
       <c r="BE354" s="2"/>
-    </row>
-    <row r="355" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF354" s="2"/>
+      <c r="BG354" s="2"/>
+      <c r="BH354" s="2"/>
+      <c r="BI354" s="2"/>
+    </row>
+    <row r="355" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -21112,8 +22827,12 @@
       <c r="BC355" s="2"/>
       <c r="BD355" s="2"/>
       <c r="BE355" s="2"/>
-    </row>
-    <row r="356" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF355" s="2"/>
+      <c r="BG355" s="2"/>
+      <c r="BH355" s="2"/>
+      <c r="BI355" s="2"/>
+    </row>
+    <row r="356" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -21169,8 +22888,12 @@
       <c r="BC356" s="2"/>
       <c r="BD356" s="2"/>
       <c r="BE356" s="2"/>
-    </row>
-    <row r="357" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF356" s="2"/>
+      <c r="BG356" s="2"/>
+      <c r="BH356" s="2"/>
+      <c r="BI356" s="2"/>
+    </row>
+    <row r="357" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
@@ -21226,8 +22949,12 @@
       <c r="BC357" s="2"/>
       <c r="BD357" s="2"/>
       <c r="BE357" s="2"/>
-    </row>
-    <row r="358" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF357" s="2"/>
+      <c r="BG357" s="2"/>
+      <c r="BH357" s="2"/>
+      <c r="BI357" s="2"/>
+    </row>
+    <row r="358" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -21283,8 +23010,12 @@
       <c r="BC358" s="2"/>
       <c r="BD358" s="2"/>
       <c r="BE358" s="2"/>
-    </row>
-    <row r="359" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF358" s="2"/>
+      <c r="BG358" s="2"/>
+      <c r="BH358" s="2"/>
+      <c r="BI358" s="2"/>
+    </row>
+    <row r="359" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -21340,8 +23071,12 @@
       <c r="BC359" s="2"/>
       <c r="BD359" s="2"/>
       <c r="BE359" s="2"/>
-    </row>
-    <row r="360" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF359" s="2"/>
+      <c r="BG359" s="2"/>
+      <c r="BH359" s="2"/>
+      <c r="BI359" s="2"/>
+    </row>
+    <row r="360" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -21397,8 +23132,12 @@
       <c r="BC360" s="2"/>
       <c r="BD360" s="2"/>
       <c r="BE360" s="2"/>
-    </row>
-    <row r="361" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF360" s="2"/>
+      <c r="BG360" s="2"/>
+      <c r="BH360" s="2"/>
+      <c r="BI360" s="2"/>
+    </row>
+    <row r="361" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -21454,8 +23193,12 @@
       <c r="BC361" s="2"/>
       <c r="BD361" s="2"/>
       <c r="BE361" s="2"/>
-    </row>
-    <row r="362" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF361" s="2"/>
+      <c r="BG361" s="2"/>
+      <c r="BH361" s="2"/>
+      <c r="BI361" s="2"/>
+    </row>
+    <row r="362" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -21511,8 +23254,12 @@
       <c r="BC362" s="2"/>
       <c r="BD362" s="2"/>
       <c r="BE362" s="2"/>
-    </row>
-    <row r="363" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF362" s="2"/>
+      <c r="BG362" s="2"/>
+      <c r="BH362" s="2"/>
+      <c r="BI362" s="2"/>
+    </row>
+    <row r="363" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -21568,8 +23315,12 @@
       <c r="BC363" s="2"/>
       <c r="BD363" s="2"/>
       <c r="BE363" s="2"/>
-    </row>
-    <row r="364" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF363" s="2"/>
+      <c r="BG363" s="2"/>
+      <c r="BH363" s="2"/>
+      <c r="BI363" s="2"/>
+    </row>
+    <row r="364" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -21625,8 +23376,12 @@
       <c r="BC364" s="2"/>
       <c r="BD364" s="2"/>
       <c r="BE364" s="2"/>
-    </row>
-    <row r="365" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF364" s="2"/>
+      <c r="BG364" s="2"/>
+      <c r="BH364" s="2"/>
+      <c r="BI364" s="2"/>
+    </row>
+    <row r="365" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -21682,8 +23437,12 @@
       <c r="BC365" s="2"/>
       <c r="BD365" s="2"/>
       <c r="BE365" s="2"/>
-    </row>
-    <row r="366" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF365" s="2"/>
+      <c r="BG365" s="2"/>
+      <c r="BH365" s="2"/>
+      <c r="BI365" s="2"/>
+    </row>
+    <row r="366" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -21739,8 +23498,12 @@
       <c r="BC366" s="2"/>
       <c r="BD366" s="2"/>
       <c r="BE366" s="2"/>
-    </row>
-    <row r="367" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF366" s="2"/>
+      <c r="BG366" s="2"/>
+      <c r="BH366" s="2"/>
+      <c r="BI366" s="2"/>
+    </row>
+    <row r="367" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -21796,8 +23559,12 @@
       <c r="BC367" s="2"/>
       <c r="BD367" s="2"/>
       <c r="BE367" s="2"/>
-    </row>
-    <row r="368" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF367" s="2"/>
+      <c r="BG367" s="2"/>
+      <c r="BH367" s="2"/>
+      <c r="BI367" s="2"/>
+    </row>
+    <row r="368" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -21853,8 +23620,12 @@
       <c r="BC368" s="2"/>
       <c r="BD368" s="2"/>
       <c r="BE368" s="2"/>
-    </row>
-    <row r="369" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF368" s="2"/>
+      <c r="BG368" s="2"/>
+      <c r="BH368" s="2"/>
+      <c r="BI368" s="2"/>
+    </row>
+    <row r="369" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -21910,8 +23681,12 @@
       <c r="BC369" s="2"/>
       <c r="BD369" s="2"/>
       <c r="BE369" s="2"/>
-    </row>
-    <row r="370" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF369" s="2"/>
+      <c r="BG369" s="2"/>
+      <c r="BH369" s="2"/>
+      <c r="BI369" s="2"/>
+    </row>
+    <row r="370" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -21967,8 +23742,12 @@
       <c r="BC370" s="2"/>
       <c r="BD370" s="2"/>
       <c r="BE370" s="2"/>
-    </row>
-    <row r="371" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF370" s="2"/>
+      <c r="BG370" s="2"/>
+      <c r="BH370" s="2"/>
+      <c r="BI370" s="2"/>
+    </row>
+    <row r="371" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
@@ -22024,8 +23803,12 @@
       <c r="BC371" s="2"/>
       <c r="BD371" s="2"/>
       <c r="BE371" s="2"/>
-    </row>
-    <row r="372" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF371" s="2"/>
+      <c r="BG371" s="2"/>
+      <c r="BH371" s="2"/>
+      <c r="BI371" s="2"/>
+    </row>
+    <row r="372" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
@@ -22081,8 +23864,12 @@
       <c r="BC372" s="2"/>
       <c r="BD372" s="2"/>
       <c r="BE372" s="2"/>
-    </row>
-    <row r="373" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF372" s="2"/>
+      <c r="BG372" s="2"/>
+      <c r="BH372" s="2"/>
+      <c r="BI372" s="2"/>
+    </row>
+    <row r="373" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
@@ -22138,8 +23925,12 @@
       <c r="BC373" s="2"/>
       <c r="BD373" s="2"/>
       <c r="BE373" s="2"/>
-    </row>
-    <row r="374" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF373" s="2"/>
+      <c r="BG373" s="2"/>
+      <c r="BH373" s="2"/>
+      <c r="BI373" s="2"/>
+    </row>
+    <row r="374" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
@@ -22195,8 +23986,12 @@
       <c r="BC374" s="2"/>
       <c r="BD374" s="2"/>
       <c r="BE374" s="2"/>
-    </row>
-    <row r="375" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF374" s="2"/>
+      <c r="BG374" s="2"/>
+      <c r="BH374" s="2"/>
+      <c r="BI374" s="2"/>
+    </row>
+    <row r="375" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
@@ -22252,8 +24047,12 @@
       <c r="BC375" s="2"/>
       <c r="BD375" s="2"/>
       <c r="BE375" s="2"/>
-    </row>
-    <row r="376" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF375" s="2"/>
+      <c r="BG375" s="2"/>
+      <c r="BH375" s="2"/>
+      <c r="BI375" s="2"/>
+    </row>
+    <row r="376" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
@@ -22309,8 +24108,12 @@
       <c r="BC376" s="2"/>
       <c r="BD376" s="2"/>
       <c r="BE376" s="2"/>
-    </row>
-    <row r="377" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF376" s="2"/>
+      <c r="BG376" s="2"/>
+      <c r="BH376" s="2"/>
+      <c r="BI376" s="2"/>
+    </row>
+    <row r="377" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
@@ -22366,8 +24169,12 @@
       <c r="BC377" s="2"/>
       <c r="BD377" s="2"/>
       <c r="BE377" s="2"/>
-    </row>
-    <row r="378" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF377" s="2"/>
+      <c r="BG377" s="2"/>
+      <c r="BH377" s="2"/>
+      <c r="BI377" s="2"/>
+    </row>
+    <row r="378" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
@@ -22423,8 +24230,12 @@
       <c r="BC378" s="2"/>
       <c r="BD378" s="2"/>
       <c r="BE378" s="2"/>
-    </row>
-    <row r="379" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF378" s="2"/>
+      <c r="BG378" s="2"/>
+      <c r="BH378" s="2"/>
+      <c r="BI378" s="2"/>
+    </row>
+    <row r="379" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
@@ -22480,8 +24291,12 @@
       <c r="BC379" s="2"/>
       <c r="BD379" s="2"/>
       <c r="BE379" s="2"/>
-    </row>
-    <row r="380" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF379" s="2"/>
+      <c r="BG379" s="2"/>
+      <c r="BH379" s="2"/>
+      <c r="BI379" s="2"/>
+    </row>
+    <row r="380" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -22537,8 +24352,12 @@
       <c r="BC380" s="2"/>
       <c r="BD380" s="2"/>
       <c r="BE380" s="2"/>
-    </row>
-    <row r="381" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF380" s="2"/>
+      <c r="BG380" s="2"/>
+      <c r="BH380" s="2"/>
+      <c r="BI380" s="2"/>
+    </row>
+    <row r="381" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -22594,8 +24413,12 @@
       <c r="BC381" s="2"/>
       <c r="BD381" s="2"/>
       <c r="BE381" s="2"/>
-    </row>
-    <row r="382" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF381" s="2"/>
+      <c r="BG381" s="2"/>
+      <c r="BH381" s="2"/>
+      <c r="BI381" s="2"/>
+    </row>
+    <row r="382" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
@@ -22651,8 +24474,12 @@
       <c r="BC382" s="2"/>
       <c r="BD382" s="2"/>
       <c r="BE382" s="2"/>
-    </row>
-    <row r="383" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF382" s="2"/>
+      <c r="BG382" s="2"/>
+      <c r="BH382" s="2"/>
+      <c r="BI382" s="2"/>
+    </row>
+    <row r="383" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -22708,8 +24535,12 @@
       <c r="BC383" s="2"/>
       <c r="BD383" s="2"/>
       <c r="BE383" s="2"/>
-    </row>
-    <row r="384" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF383" s="2"/>
+      <c r="BG383" s="2"/>
+      <c r="BH383" s="2"/>
+      <c r="BI383" s="2"/>
+    </row>
+    <row r="384" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -22765,8 +24596,12 @@
       <c r="BC384" s="2"/>
       <c r="BD384" s="2"/>
       <c r="BE384" s="2"/>
-    </row>
-    <row r="385" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF384" s="2"/>
+      <c r="BG384" s="2"/>
+      <c r="BH384" s="2"/>
+      <c r="BI384" s="2"/>
+    </row>
+    <row r="385" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
@@ -22822,8 +24657,12 @@
       <c r="BC385" s="2"/>
       <c r="BD385" s="2"/>
       <c r="BE385" s="2"/>
-    </row>
-    <row r="386" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF385" s="2"/>
+      <c r="BG385" s="2"/>
+      <c r="BH385" s="2"/>
+      <c r="BI385" s="2"/>
+    </row>
+    <row r="386" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -22879,8 +24718,12 @@
       <c r="BC386" s="2"/>
       <c r="BD386" s="2"/>
       <c r="BE386" s="2"/>
-    </row>
-    <row r="387" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF386" s="2"/>
+      <c r="BG386" s="2"/>
+      <c r="BH386" s="2"/>
+      <c r="BI386" s="2"/>
+    </row>
+    <row r="387" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -22936,8 +24779,12 @@
       <c r="BC387" s="2"/>
       <c r="BD387" s="2"/>
       <c r="BE387" s="2"/>
-    </row>
-    <row r="388" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF387" s="2"/>
+      <c r="BG387" s="2"/>
+      <c r="BH387" s="2"/>
+      <c r="BI387" s="2"/>
+    </row>
+    <row r="388" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
@@ -22993,8 +24840,12 @@
       <c r="BC388" s="2"/>
       <c r="BD388" s="2"/>
       <c r="BE388" s="2"/>
-    </row>
-    <row r="389" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF388" s="2"/>
+      <c r="BG388" s="2"/>
+      <c r="BH388" s="2"/>
+      <c r="BI388" s="2"/>
+    </row>
+    <row r="389" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
@@ -23050,8 +24901,12 @@
       <c r="BC389" s="2"/>
       <c r="BD389" s="2"/>
       <c r="BE389" s="2"/>
-    </row>
-    <row r="390" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF389" s="2"/>
+      <c r="BG389" s="2"/>
+      <c r="BH389" s="2"/>
+      <c r="BI389" s="2"/>
+    </row>
+    <row r="390" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
@@ -23107,8 +24962,12 @@
       <c r="BC390" s="2"/>
       <c r="BD390" s="2"/>
       <c r="BE390" s="2"/>
-    </row>
-    <row r="391" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF390" s="2"/>
+      <c r="BG390" s="2"/>
+      <c r="BH390" s="2"/>
+      <c r="BI390" s="2"/>
+    </row>
+    <row r="391" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
@@ -23164,8 +25023,12 @@
       <c r="BC391" s="2"/>
       <c r="BD391" s="2"/>
       <c r="BE391" s="2"/>
-    </row>
-    <row r="392" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF391" s="2"/>
+      <c r="BG391" s="2"/>
+      <c r="BH391" s="2"/>
+      <c r="BI391" s="2"/>
+    </row>
+    <row r="392" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
@@ -23221,8 +25084,12 @@
       <c r="BC392" s="2"/>
       <c r="BD392" s="2"/>
       <c r="BE392" s="2"/>
-    </row>
-    <row r="393" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF392" s="2"/>
+      <c r="BG392" s="2"/>
+      <c r="BH392" s="2"/>
+      <c r="BI392" s="2"/>
+    </row>
+    <row r="393" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -23278,8 +25145,12 @@
       <c r="BC393" s="2"/>
       <c r="BD393" s="2"/>
       <c r="BE393" s="2"/>
-    </row>
-    <row r="394" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF393" s="2"/>
+      <c r="BG393" s="2"/>
+      <c r="BH393" s="2"/>
+      <c r="BI393" s="2"/>
+    </row>
+    <row r="394" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
@@ -23335,8 +25206,12 @@
       <c r="BC394" s="2"/>
       <c r="BD394" s="2"/>
       <c r="BE394" s="2"/>
-    </row>
-    <row r="395" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF394" s="2"/>
+      <c r="BG394" s="2"/>
+      <c r="BH394" s="2"/>
+      <c r="BI394" s="2"/>
+    </row>
+    <row r="395" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -23392,8 +25267,12 @@
       <c r="BC395" s="2"/>
       <c r="BD395" s="2"/>
       <c r="BE395" s="2"/>
-    </row>
-    <row r="396" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF395" s="2"/>
+      <c r="BG395" s="2"/>
+      <c r="BH395" s="2"/>
+      <c r="BI395" s="2"/>
+    </row>
+    <row r="396" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -23449,8 +25328,12 @@
       <c r="BC396" s="2"/>
       <c r="BD396" s="2"/>
       <c r="BE396" s="2"/>
-    </row>
-    <row r="397" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF396" s="2"/>
+      <c r="BG396" s="2"/>
+      <c r="BH396" s="2"/>
+      <c r="BI396" s="2"/>
+    </row>
+    <row r="397" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -23506,8 +25389,12 @@
       <c r="BC397" s="2"/>
       <c r="BD397" s="2"/>
       <c r="BE397" s="2"/>
-    </row>
-    <row r="398" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF397" s="2"/>
+      <c r="BG397" s="2"/>
+      <c r="BH397" s="2"/>
+      <c r="BI397" s="2"/>
+    </row>
+    <row r="398" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
@@ -23563,8 +25450,12 @@
       <c r="BC398" s="2"/>
       <c r="BD398" s="2"/>
       <c r="BE398" s="2"/>
-    </row>
-    <row r="399" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF398" s="2"/>
+      <c r="BG398" s="2"/>
+      <c r="BH398" s="2"/>
+      <c r="BI398" s="2"/>
+    </row>
+    <row r="399" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -23620,8 +25511,12 @@
       <c r="BC399" s="2"/>
       <c r="BD399" s="2"/>
       <c r="BE399" s="2"/>
-    </row>
-    <row r="400" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF399" s="2"/>
+      <c r="BG399" s="2"/>
+      <c r="BH399" s="2"/>
+      <c r="BI399" s="2"/>
+    </row>
+    <row r="400" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -23677,8 +25572,12 @@
       <c r="BC400" s="2"/>
       <c r="BD400" s="2"/>
       <c r="BE400" s="2"/>
-    </row>
-    <row r="401" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF400" s="2"/>
+      <c r="BG400" s="2"/>
+      <c r="BH400" s="2"/>
+      <c r="BI400" s="2"/>
+    </row>
+    <row r="401" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
@@ -23734,8 +25633,12 @@
       <c r="BC401" s="2"/>
       <c r="BD401" s="2"/>
       <c r="BE401" s="2"/>
-    </row>
-    <row r="402" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF401" s="2"/>
+      <c r="BG401" s="2"/>
+      <c r="BH401" s="2"/>
+      <c r="BI401" s="2"/>
+    </row>
+    <row r="402" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -23791,8 +25694,12 @@
       <c r="BC402" s="2"/>
       <c r="BD402" s="2"/>
       <c r="BE402" s="2"/>
-    </row>
-    <row r="403" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF402" s="2"/>
+      <c r="BG402" s="2"/>
+      <c r="BH402" s="2"/>
+      <c r="BI402" s="2"/>
+    </row>
+    <row r="403" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
@@ -23848,8 +25755,12 @@
       <c r="BC403" s="2"/>
       <c r="BD403" s="2"/>
       <c r="BE403" s="2"/>
-    </row>
-    <row r="404" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF403" s="2"/>
+      <c r="BG403" s="2"/>
+      <c r="BH403" s="2"/>
+      <c r="BI403" s="2"/>
+    </row>
+    <row r="404" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
       <c r="E404" s="2"/>
@@ -23905,8 +25816,12 @@
       <c r="BC404" s="2"/>
       <c r="BD404" s="2"/>
       <c r="BE404" s="2"/>
-    </row>
-    <row r="405" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF404" s="2"/>
+      <c r="BG404" s="2"/>
+      <c r="BH404" s="2"/>
+      <c r="BI404" s="2"/>
+    </row>
+    <row r="405" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
@@ -23962,8 +25877,12 @@
       <c r="BC405" s="2"/>
       <c r="BD405" s="2"/>
       <c r="BE405" s="2"/>
-    </row>
-    <row r="406" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF405" s="2"/>
+      <c r="BG405" s="2"/>
+      <c r="BH405" s="2"/>
+      <c r="BI405" s="2"/>
+    </row>
+    <row r="406" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
@@ -24019,8 +25938,12 @@
       <c r="BC406" s="2"/>
       <c r="BD406" s="2"/>
       <c r="BE406" s="2"/>
-    </row>
-    <row r="407" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF406" s="2"/>
+      <c r="BG406" s="2"/>
+      <c r="BH406" s="2"/>
+      <c r="BI406" s="2"/>
+    </row>
+    <row r="407" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
@@ -24076,8 +25999,12 @@
       <c r="BC407" s="2"/>
       <c r="BD407" s="2"/>
       <c r="BE407" s="2"/>
-    </row>
-    <row r="408" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF407" s="2"/>
+      <c r="BG407" s="2"/>
+      <c r="BH407" s="2"/>
+      <c r="BI407" s="2"/>
+    </row>
+    <row r="408" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
       <c r="E408" s="2"/>
@@ -24133,8 +26060,12 @@
       <c r="BC408" s="2"/>
       <c r="BD408" s="2"/>
       <c r="BE408" s="2"/>
-    </row>
-    <row r="409" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF408" s="2"/>
+      <c r="BG408" s="2"/>
+      <c r="BH408" s="2"/>
+      <c r="BI408" s="2"/>
+    </row>
+    <row r="409" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
       <c r="E409" s="2"/>
@@ -24190,8 +26121,12 @@
       <c r="BC409" s="2"/>
       <c r="BD409" s="2"/>
       <c r="BE409" s="2"/>
-    </row>
-    <row r="410" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF409" s="2"/>
+      <c r="BG409" s="2"/>
+      <c r="BH409" s="2"/>
+      <c r="BI409" s="2"/>
+    </row>
+    <row r="410" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
@@ -24247,8 +26182,12 @@
       <c r="BC410" s="2"/>
       <c r="BD410" s="2"/>
       <c r="BE410" s="2"/>
-    </row>
-    <row r="411" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF410" s="2"/>
+      <c r="BG410" s="2"/>
+      <c r="BH410" s="2"/>
+      <c r="BI410" s="2"/>
+    </row>
+    <row r="411" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
       <c r="E411" s="2"/>
@@ -24304,8 +26243,12 @@
       <c r="BC411" s="2"/>
       <c r="BD411" s="2"/>
       <c r="BE411" s="2"/>
-    </row>
-    <row r="412" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF411" s="2"/>
+      <c r="BG411" s="2"/>
+      <c r="BH411" s="2"/>
+      <c r="BI411" s="2"/>
+    </row>
+    <row r="412" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
@@ -24361,8 +26304,12 @@
       <c r="BC412" s="2"/>
       <c r="BD412" s="2"/>
       <c r="BE412" s="2"/>
-    </row>
-    <row r="413" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF412" s="2"/>
+      <c r="BG412" s="2"/>
+      <c r="BH412" s="2"/>
+      <c r="BI412" s="2"/>
+    </row>
+    <row r="413" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
       <c r="E413" s="2"/>
@@ -24418,8 +26365,12 @@
       <c r="BC413" s="2"/>
       <c r="BD413" s="2"/>
       <c r="BE413" s="2"/>
-    </row>
-    <row r="414" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF413" s="2"/>
+      <c r="BG413" s="2"/>
+      <c r="BH413" s="2"/>
+      <c r="BI413" s="2"/>
+    </row>
+    <row r="414" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
@@ -24475,8 +26426,12 @@
       <c r="BC414" s="2"/>
       <c r="BD414" s="2"/>
       <c r="BE414" s="2"/>
-    </row>
-    <row r="415" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF414" s="2"/>
+      <c r="BG414" s="2"/>
+      <c r="BH414" s="2"/>
+      <c r="BI414" s="2"/>
+    </row>
+    <row r="415" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
@@ -24532,8 +26487,12 @@
       <c r="BC415" s="2"/>
       <c r="BD415" s="2"/>
       <c r="BE415" s="2"/>
-    </row>
-    <row r="416" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF415" s="2"/>
+      <c r="BG415" s="2"/>
+      <c r="BH415" s="2"/>
+      <c r="BI415" s="2"/>
+    </row>
+    <row r="416" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
@@ -24589,8 +26548,12 @@
       <c r="BC416" s="2"/>
       <c r="BD416" s="2"/>
       <c r="BE416" s="2"/>
-    </row>
-    <row r="417" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF416" s="2"/>
+      <c r="BG416" s="2"/>
+      <c r="BH416" s="2"/>
+      <c r="BI416" s="2"/>
+    </row>
+    <row r="417" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
@@ -24646,8 +26609,12 @@
       <c r="BC417" s="2"/>
       <c r="BD417" s="2"/>
       <c r="BE417" s="2"/>
-    </row>
-    <row r="418" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF417" s="2"/>
+      <c r="BG417" s="2"/>
+      <c r="BH417" s="2"/>
+      <c r="BI417" s="2"/>
+    </row>
+    <row r="418" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
@@ -24703,8 +26670,12 @@
       <c r="BC418" s="2"/>
       <c r="BD418" s="2"/>
       <c r="BE418" s="2"/>
-    </row>
-    <row r="419" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF418" s="2"/>
+      <c r="BG418" s="2"/>
+      <c r="BH418" s="2"/>
+      <c r="BI418" s="2"/>
+    </row>
+    <row r="419" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
@@ -24760,8 +26731,12 @@
       <c r="BC419" s="2"/>
       <c r="BD419" s="2"/>
       <c r="BE419" s="2"/>
-    </row>
-    <row r="420" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF419" s="2"/>
+      <c r="BG419" s="2"/>
+      <c r="BH419" s="2"/>
+      <c r="BI419" s="2"/>
+    </row>
+    <row r="420" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
@@ -24817,8 +26792,12 @@
       <c r="BC420" s="2"/>
       <c r="BD420" s="2"/>
       <c r="BE420" s="2"/>
-    </row>
-    <row r="421" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF420" s="2"/>
+      <c r="BG420" s="2"/>
+      <c r="BH420" s="2"/>
+      <c r="BI420" s="2"/>
+    </row>
+    <row r="421" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
       <c r="E421" s="2"/>
@@ -24874,8 +26853,12 @@
       <c r="BC421" s="2"/>
       <c r="BD421" s="2"/>
       <c r="BE421" s="2"/>
-    </row>
-    <row r="422" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF421" s="2"/>
+      <c r="BG421" s="2"/>
+      <c r="BH421" s="2"/>
+      <c r="BI421" s="2"/>
+    </row>
+    <row r="422" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
@@ -24931,8 +26914,12 @@
       <c r="BC422" s="2"/>
       <c r="BD422" s="2"/>
       <c r="BE422" s="2"/>
-    </row>
-    <row r="423" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF422" s="2"/>
+      <c r="BG422" s="2"/>
+      <c r="BH422" s="2"/>
+      <c r="BI422" s="2"/>
+    </row>
+    <row r="423" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
@@ -24988,8 +26975,12 @@
       <c r="BC423" s="2"/>
       <c r="BD423" s="2"/>
       <c r="BE423" s="2"/>
-    </row>
-    <row r="424" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF423" s="2"/>
+      <c r="BG423" s="2"/>
+      <c r="BH423" s="2"/>
+      <c r="BI423" s="2"/>
+    </row>
+    <row r="424" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
@@ -25045,8 +27036,12 @@
       <c r="BC424" s="2"/>
       <c r="BD424" s="2"/>
       <c r="BE424" s="2"/>
-    </row>
-    <row r="425" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF424" s="2"/>
+      <c r="BG424" s="2"/>
+      <c r="BH424" s="2"/>
+      <c r="BI424" s="2"/>
+    </row>
+    <row r="425" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
@@ -25102,8 +27097,12 @@
       <c r="BC425" s="2"/>
       <c r="BD425" s="2"/>
       <c r="BE425" s="2"/>
-    </row>
-    <row r="426" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF425" s="2"/>
+      <c r="BG425" s="2"/>
+      <c r="BH425" s="2"/>
+      <c r="BI425" s="2"/>
+    </row>
+    <row r="426" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
@@ -25159,8 +27158,12 @@
       <c r="BC426" s="2"/>
       <c r="BD426" s="2"/>
       <c r="BE426" s="2"/>
-    </row>
-    <row r="427" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF426" s="2"/>
+      <c r="BG426" s="2"/>
+      <c r="BH426" s="2"/>
+      <c r="BI426" s="2"/>
+    </row>
+    <row r="427" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
@@ -25216,8 +27219,12 @@
       <c r="BC427" s="2"/>
       <c r="BD427" s="2"/>
       <c r="BE427" s="2"/>
-    </row>
-    <row r="428" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF427" s="2"/>
+      <c r="BG427" s="2"/>
+      <c r="BH427" s="2"/>
+      <c r="BI427" s="2"/>
+    </row>
+    <row r="428" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
@@ -25273,8 +27280,12 @@
       <c r="BC428" s="2"/>
       <c r="BD428" s="2"/>
       <c r="BE428" s="2"/>
-    </row>
-    <row r="429" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF428" s="2"/>
+      <c r="BG428" s="2"/>
+      <c r="BH428" s="2"/>
+      <c r="BI428" s="2"/>
+    </row>
+    <row r="429" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
@@ -25330,8 +27341,12 @@
       <c r="BC429" s="2"/>
       <c r="BD429" s="2"/>
       <c r="BE429" s="2"/>
-    </row>
-    <row r="430" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF429" s="2"/>
+      <c r="BG429" s="2"/>
+      <c r="BH429" s="2"/>
+      <c r="BI429" s="2"/>
+    </row>
+    <row r="430" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
@@ -25387,8 +27402,12 @@
       <c r="BC430" s="2"/>
       <c r="BD430" s="2"/>
       <c r="BE430" s="2"/>
-    </row>
-    <row r="431" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF430" s="2"/>
+      <c r="BG430" s="2"/>
+      <c r="BH430" s="2"/>
+      <c r="BI430" s="2"/>
+    </row>
+    <row r="431" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
@@ -25444,8 +27463,12 @@
       <c r="BC431" s="2"/>
       <c r="BD431" s="2"/>
       <c r="BE431" s="2"/>
-    </row>
-    <row r="432" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF431" s="2"/>
+      <c r="BG431" s="2"/>
+      <c r="BH431" s="2"/>
+      <c r="BI431" s="2"/>
+    </row>
+    <row r="432" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
@@ -25501,8 +27524,12 @@
       <c r="BC432" s="2"/>
       <c r="BD432" s="2"/>
       <c r="BE432" s="2"/>
-    </row>
-    <row r="433" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF432" s="2"/>
+      <c r="BG432" s="2"/>
+      <c r="BH432" s="2"/>
+      <c r="BI432" s="2"/>
+    </row>
+    <row r="433" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
@@ -25558,8 +27585,12 @@
       <c r="BC433" s="2"/>
       <c r="BD433" s="2"/>
       <c r="BE433" s="2"/>
-    </row>
-    <row r="434" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF433" s="2"/>
+      <c r="BG433" s="2"/>
+      <c r="BH433" s="2"/>
+      <c r="BI433" s="2"/>
+    </row>
+    <row r="434" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
@@ -25615,8 +27646,12 @@
       <c r="BC434" s="2"/>
       <c r="BD434" s="2"/>
       <c r="BE434" s="2"/>
-    </row>
-    <row r="435" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF434" s="2"/>
+      <c r="BG434" s="2"/>
+      <c r="BH434" s="2"/>
+      <c r="BI434" s="2"/>
+    </row>
+    <row r="435" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
@@ -25672,8 +27707,12 @@
       <c r="BC435" s="2"/>
       <c r="BD435" s="2"/>
       <c r="BE435" s="2"/>
-    </row>
-    <row r="436" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF435" s="2"/>
+      <c r="BG435" s="2"/>
+      <c r="BH435" s="2"/>
+      <c r="BI435" s="2"/>
+    </row>
+    <row r="436" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
@@ -25729,8 +27768,12 @@
       <c r="BC436" s="2"/>
       <c r="BD436" s="2"/>
       <c r="BE436" s="2"/>
-    </row>
-    <row r="437" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF436" s="2"/>
+      <c r="BG436" s="2"/>
+      <c r="BH436" s="2"/>
+      <c r="BI436" s="2"/>
+    </row>
+    <row r="437" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
@@ -25786,8 +27829,12 @@
       <c r="BC437" s="2"/>
       <c r="BD437" s="2"/>
       <c r="BE437" s="2"/>
-    </row>
-    <row r="438" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF437" s="2"/>
+      <c r="BG437" s="2"/>
+      <c r="BH437" s="2"/>
+      <c r="BI437" s="2"/>
+    </row>
+    <row r="438" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
@@ -25843,8 +27890,12 @@
       <c r="BC438" s="2"/>
       <c r="BD438" s="2"/>
       <c r="BE438" s="2"/>
-    </row>
-    <row r="439" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF438" s="2"/>
+      <c r="BG438" s="2"/>
+      <c r="BH438" s="2"/>
+      <c r="BI438" s="2"/>
+    </row>
+    <row r="439" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
@@ -25900,8 +27951,12 @@
       <c r="BC439" s="2"/>
       <c r="BD439" s="2"/>
       <c r="BE439" s="2"/>
-    </row>
-    <row r="440" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF439" s="2"/>
+      <c r="BG439" s="2"/>
+      <c r="BH439" s="2"/>
+      <c r="BI439" s="2"/>
+    </row>
+    <row r="440" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
@@ -25957,8 +28012,12 @@
       <c r="BC440" s="2"/>
       <c r="BD440" s="2"/>
       <c r="BE440" s="2"/>
-    </row>
-    <row r="441" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF440" s="2"/>
+      <c r="BG440" s="2"/>
+      <c r="BH440" s="2"/>
+      <c r="BI440" s="2"/>
+    </row>
+    <row r="441" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
@@ -26014,8 +28073,12 @@
       <c r="BC441" s="2"/>
       <c r="BD441" s="2"/>
       <c r="BE441" s="2"/>
-    </row>
-    <row r="442" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF441" s="2"/>
+      <c r="BG441" s="2"/>
+      <c r="BH441" s="2"/>
+      <c r="BI441" s="2"/>
+    </row>
+    <row r="442" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
@@ -26071,8 +28134,12 @@
       <c r="BC442" s="2"/>
       <c r="BD442" s="2"/>
       <c r="BE442" s="2"/>
-    </row>
-    <row r="443" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF442" s="2"/>
+      <c r="BG442" s="2"/>
+      <c r="BH442" s="2"/>
+      <c r="BI442" s="2"/>
+    </row>
+    <row r="443" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
@@ -26128,8 +28195,12 @@
       <c r="BC443" s="2"/>
       <c r="BD443" s="2"/>
       <c r="BE443" s="2"/>
-    </row>
-    <row r="444" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF443" s="2"/>
+      <c r="BG443" s="2"/>
+      <c r="BH443" s="2"/>
+      <c r="BI443" s="2"/>
+    </row>
+    <row r="444" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
@@ -26185,8 +28256,12 @@
       <c r="BC444" s="2"/>
       <c r="BD444" s="2"/>
       <c r="BE444" s="2"/>
-    </row>
-    <row r="445" spans="3:57" x14ac:dyDescent="0.25">
+      <c r="BF444" s="2"/>
+      <c r="BG444" s="2"/>
+      <c r="BH444" s="2"/>
+      <c r="BI444" s="2"/>
+    </row>
+    <row r="445" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
@@ -26242,6 +28317,132 @@
       <c r="BC445" s="2"/>
       <c r="BD445" s="2"/>
       <c r="BE445" s="2"/>
+      <c r="BF445" s="2"/>
+      <c r="BG445" s="2"/>
+      <c r="BH445" s="2"/>
+      <c r="BI445" s="2"/>
+    </row>
+    <row r="446" spans="3:61" x14ac:dyDescent="0.25">
+      <c r="C446" s="2"/>
+      <c r="D446" s="2"/>
+      <c r="E446" s="2"/>
+      <c r="F446" s="2"/>
+      <c r="G446" s="2"/>
+      <c r="H446" s="2"/>
+      <c r="I446" s="2"/>
+      <c r="J446" s="2"/>
+      <c r="K446" s="2"/>
+      <c r="L446" s="2"/>
+      <c r="M446" s="2"/>
+      <c r="N446" s="2"/>
+      <c r="O446" s="2"/>
+      <c r="P446" s="2"/>
+      <c r="Q446" s="2"/>
+      <c r="R446" s="2"/>
+      <c r="S446" s="2"/>
+      <c r="T446" s="2"/>
+      <c r="U446" s="2"/>
+      <c r="V446" s="2"/>
+      <c r="W446" s="2"/>
+      <c r="X446" s="2"/>
+      <c r="Y446" s="2"/>
+      <c r="Z446" s="2"/>
+      <c r="AA446" s="2"/>
+      <c r="AB446" s="2"/>
+      <c r="AC446" s="2"/>
+      <c r="AD446" s="2"/>
+      <c r="AE446" s="2"/>
+      <c r="AF446" s="2"/>
+      <c r="AG446" s="2"/>
+      <c r="AH446" s="2"/>
+      <c r="AI446" s="2"/>
+      <c r="AJ446" s="2"/>
+      <c r="AK446" s="2"/>
+      <c r="AL446" s="2"/>
+      <c r="AM446" s="2"/>
+      <c r="AN446" s="2"/>
+      <c r="AO446" s="2"/>
+      <c r="AP446" s="2"/>
+      <c r="AQ446" s="2"/>
+      <c r="AR446" s="2"/>
+      <c r="AS446" s="2"/>
+      <c r="AT446" s="2"/>
+      <c r="AU446" s="2"/>
+      <c r="AV446" s="2"/>
+      <c r="AW446" s="2"/>
+      <c r="AX446" s="2"/>
+      <c r="AY446" s="2"/>
+      <c r="AZ446" s="2"/>
+      <c r="BA446" s="2"/>
+      <c r="BB446" s="2"/>
+      <c r="BC446" s="2"/>
+      <c r="BD446" s="2"/>
+      <c r="BE446" s="2"/>
+      <c r="BF446" s="2"/>
+      <c r="BG446" s="2"/>
+      <c r="BH446" s="2"/>
+      <c r="BI446" s="2"/>
+    </row>
+    <row r="447" spans="3:61" x14ac:dyDescent="0.25">
+      <c r="C447" s="2"/>
+      <c r="D447" s="2"/>
+      <c r="E447" s="2"/>
+      <c r="F447" s="2"/>
+      <c r="G447" s="2"/>
+      <c r="H447" s="2"/>
+      <c r="I447" s="2"/>
+      <c r="J447" s="2"/>
+      <c r="K447" s="2"/>
+      <c r="L447" s="2"/>
+      <c r="M447" s="2"/>
+      <c r="N447" s="2"/>
+      <c r="O447" s="2"/>
+      <c r="P447" s="2"/>
+      <c r="Q447" s="2"/>
+      <c r="R447" s="2"/>
+      <c r="S447" s="2"/>
+      <c r="T447" s="2"/>
+      <c r="U447" s="2"/>
+      <c r="V447" s="2"/>
+      <c r="W447" s="2"/>
+      <c r="X447" s="2"/>
+      <c r="Y447" s="2"/>
+      <c r="Z447" s="2"/>
+      <c r="AA447" s="2"/>
+      <c r="AB447" s="2"/>
+      <c r="AC447" s="2"/>
+      <c r="AD447" s="2"/>
+      <c r="AE447" s="2"/>
+      <c r="AF447" s="2"/>
+      <c r="AG447" s="2"/>
+      <c r="AH447" s="2"/>
+      <c r="AI447" s="2"/>
+      <c r="AJ447" s="2"/>
+      <c r="AK447" s="2"/>
+      <c r="AL447" s="2"/>
+      <c r="AM447" s="2"/>
+      <c r="AN447" s="2"/>
+      <c r="AO447" s="2"/>
+      <c r="AP447" s="2"/>
+      <c r="AQ447" s="2"/>
+      <c r="AR447" s="2"/>
+      <c r="AS447" s="2"/>
+      <c r="AT447" s="2"/>
+      <c r="AU447" s="2"/>
+      <c r="AV447" s="2"/>
+      <c r="AW447" s="2"/>
+      <c r="AX447" s="2"/>
+      <c r="AY447" s="2"/>
+      <c r="AZ447" s="2"/>
+      <c r="BA447" s="2"/>
+      <c r="BB447" s="2"/>
+      <c r="BC447" s="2"/>
+      <c r="BD447" s="2"/>
+      <c r="BE447" s="2"/>
+      <c r="BF447" s="2"/>
+      <c r="BG447" s="2"/>
+      <c r="BH447" s="2"/>
+      <c r="BI447" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
